--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_19_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_19_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1142991.054072519</v>
+        <v>1078205.087178252</v>
       </c>
     </row>
     <row r="7">
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>52.50301417494119</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>200.1479483760445</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="G11" t="n">
-        <v>200.1479483760445</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>200.1479483760445</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>123.7872987546788</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>8.621411752746354</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>157.7804284938808</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>9.88847268299272</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>41.84420822674564</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1469,7 +1469,7 @@
         <v>100.6160379875227</v>
       </c>
       <c r="I12" t="n">
-        <v>47.97413555148589</v>
+        <v>47.97413555148588</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>195.3153942975433</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>151.6189599492424</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1527,31 +1527,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>150.3549905315612</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>39.51936386925712</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9823413329452</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.2594635169644</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>125.1179786690865</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>22.04847171286319</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.702362769826024</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>131.941357975441</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>167.6689011768737</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>200.1479483760447</v>
       </c>
       <c r="E14" t="n">
-        <v>52.50301417494131</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>123.7872987546788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>8.621411752746354</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>200.1479483760447</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>200.1479483760447</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1691,22 +1691,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>3.385103884669219</v>
       </c>
       <c r="F15" t="n">
-        <v>96.54022396658152</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.1404178785758</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>100.6160379875227</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>47.97413555148589</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>25.4601434803122</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>195.3153942975433</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>200.1479483760446</v>
+        <v>200.1479483760447</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>200.1479483760447</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>200.1479483760447</v>
       </c>
     </row>
     <row r="16">
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>17.470892156394</v>
+        <v>40.97348561328714</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.9823413329452</v>
       </c>
       <c r="H16" t="n">
-        <v>153.2594635169644</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>125.1179786690865</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>22.0484717128632</v>
+        <v>22.04847171286319</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>200.1479483760447</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>200.1479483760447</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>18.50988443573911</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>200.1479483760447</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>200.1479483760447</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>123.7872987546788</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>157.7804284938809</v>
+        <v>52.50301417494131</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>200.1479483760447</v>
       </c>
       <c r="U17" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.1404178785758</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>47.97413555148589</v>
+        <v>47.97413555148588</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.46014348031221</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>149.3361295668697</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>195.3153942975433</v>
       </c>
       <c r="U18" t="n">
-        <v>200.1479483760446</v>
+        <v>30.62307830423713</v>
       </c>
       <c r="V18" t="n">
-        <v>11.0553412208594</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>200.1479483760447</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>174.587950159794</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.702362769826038</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>200.1479483760446</v>
+        <v>200.1479483760447</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>200.1479483760447</v>
       </c>
       <c r="V19" t="n">
-        <v>200.1479483760446</v>
+        <v>176.29031292962</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>200.1479483760447</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>200.1479483760445</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>200.1479483760445</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="H20" t="n">
-        <v>200.1479483760445</v>
+        <v>167.6689011768736</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>8.621411752746383</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>176.2903129296199</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
     </row>
     <row r="21">
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>47.88111276260377</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.1404178785758</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>100.6160379875227</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.46014348031221</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>149.3361295668697</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>195.3153942975433</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>200.1479483760445</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>184.4449341754849</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>200.1479483760445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>42.64659218435295</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>131.941357975441</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.9622003671396384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>200.1479483760446</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>52.50301417494122</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="I23" t="n">
-        <v>123.7872987546788</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>157.7804284938809</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>18.50988443573903</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="X24" t="n">
-        <v>200.1479483760446</v>
+        <v>176.2903129296199</v>
       </c>
       <c r="Y24" t="n">
-        <v>89.89946147888733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>77.25008223159566</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>131.941357975441</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="V25" t="n">
-        <v>200.1479483760446</v>
+        <v>176.2903129296199</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>157.7804284938809</v>
       </c>
       <c r="T26" t="n">
-        <v>176.2903129296199</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>18.50988443573903</v>
       </c>
       <c r="V26" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>9.757129279752585</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.46014348031221</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>149.3361295668697</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.494039882438075</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>200.1479483760446</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
     </row>
     <row r="28">
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>47.99080810551477</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2757,22 +2757,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.702362769826038</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.28844533568889</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
     </row>
     <row r="29">
@@ -2806,47 +2806,47 @@
         <v>200.1479483760446</v>
       </c>
       <c r="G29" t="n">
-        <v>176.29031292962</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>157.7804284938809</v>
+      </c>
+      <c r="T29" t="n">
         <v>200.1479483760446</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>200.1479483760446</v>
+        <v>18.50988443573909</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>25.46014348031221</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>176.2903129296199</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>200.1479483760446</v>
+        <v>184.4449341754851</v>
       </c>
       <c r="W30" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>200.1479483760446</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
     </row>
     <row r="31">
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>75.04247237230506</v>
+        <v>42.6465921843529</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.2594635169644</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>1.702362769826038</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>131.941357975441</v>
       </c>
       <c r="S31" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>200.1479483760446</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="E32" t="n">
         <v>200.1479483760446</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>167.6689011768736</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>8.621411752746383</v>
       </c>
       <c r="S32" t="n">
-        <v>157.7804284938809</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>9.88847268299272</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>91.70766988808026</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>136.1404178785758</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>25.46014348031221</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3167,13 +3167,13 @@
         <v>200.1479483760446</v>
       </c>
       <c r="V33" t="n">
+        <v>66.24752640776809</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
         <v>200.1479483760446</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>39.51936386925723</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9823413329452</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.2594635169644</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>125.1179786690865</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>176.29031292962</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>176.29031292962</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>200.1479483760446</v>
       </c>
-      <c r="D35" t="n">
+      <c r="G35" t="n">
         <v>200.1479483760446</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>123.7872987546788</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>8.621411752746383</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>43.88160242219491</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,22 +3347,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>89.81834377823164</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.1404178785758</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>100.6160379875227</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>25.46014348031221</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>149.3361295668697</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>195.3153942975433</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>6.326593960939467</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9823413329452</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.2594635169644</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>125.1179786690865</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>1.702362769826038</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>82.88088786633816</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>162.4251906703037</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>176.2903129296199</v>
       </c>
       <c r="E38" t="n">
         <v>200.1479483760446</v>
@@ -3517,7 +3517,7 @@
         <v>200.1479483760446</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>176.2903129296199</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>47.97413555148589</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.46014348031221</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>16.46518244708922</v>
+        <v>149.3361295668697</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>177.2386700774605</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>23.03084941265569</v>
+        <v>94.17906754218511</v>
       </c>
       <c r="H40" t="n">
-        <v>153.2594635169644</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3705,28 +3705,28 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1.702362769826038</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>131.941357975441</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>200.1479483760446</v>
       </c>
-      <c r="T40" t="n">
+      <c r="X40" t="n">
         <v>200.1479483760446</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>200.1479483760446</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="E41" t="n">
-        <v>200.1479483760445</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>200.1479483760445</v>
       </c>
       <c r="G41" t="n">
-        <v>200.1479483760445</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>8.621411752746383</v>
       </c>
       <c r="S41" t="n">
-        <v>157.7804284938809</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>9.888472682992635</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>167.6689011768736</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3824,16 +3824,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>126.4268512682855</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.46014348031221</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>150.8301694493077</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>200.1479483760445</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>200.1479483760445</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>200.1479483760445</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>30.86926490668877</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.9823413329452</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>9.307971596674731</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="T43" t="n">
         <v>200.1479483760445</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>200.1479483760445</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>200.1479483760445</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>123.7872987546788</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>8.621411752746383</v>
       </c>
       <c r="S44" t="n">
-        <v>157.7804284938809</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>200.1479483760445</v>
       </c>
-      <c r="U44" t="n">
-        <v>9.888472682992749</v>
-      </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="W44" t="n">
-        <v>200.1479483760445</v>
+        <v>43.8816024221948</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>200.1479483760445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,19 +4058,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.1404178785758</v>
+        <v>31.78673744125159</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,19 +4106,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>149.3361295668697</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>195.3153942975433</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="W45" t="n">
-        <v>17.72588277743848</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>29.35946002509941</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>63.02195732615017</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.9823413329452</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>200.1479483760445</v>
-      </c>
-      <c r="U46" t="n">
-        <v>200.1479483760445</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>800.5917935041781</v>
+        <v>218.181480694371</v>
       </c>
       <c r="C11" t="n">
-        <v>800.5917935041781</v>
+        <v>218.181480694371</v>
       </c>
       <c r="D11" t="n">
-        <v>800.5917935041781</v>
+        <v>218.181480694371</v>
       </c>
       <c r="E11" t="n">
-        <v>747.5584458527223</v>
+        <v>218.181480694371</v>
       </c>
       <c r="F11" t="n">
-        <v>545.388801028435</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="G11" t="n">
-        <v>343.2191562041476</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="H11" t="n">
-        <v>141.0495113798601</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="I11" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="J11" t="n">
-        <v>25.71381148713658</v>
+        <v>25.71381148713652</v>
       </c>
       <c r="K11" t="n">
-        <v>90.9930762053466</v>
+        <v>90.99307620534654</v>
       </c>
       <c r="L11" t="n">
-        <v>208.8795383336703</v>
+        <v>208.8795383336702</v>
       </c>
       <c r="M11" t="n">
-        <v>371.7203791850242</v>
+        <v>371.7203791850244</v>
       </c>
       <c r="N11" t="n">
-        <v>541.8099634650436</v>
+        <v>541.8099634650438</v>
       </c>
       <c r="O11" t="n">
-        <v>689.0854734804532</v>
+        <v>689.0854734804534</v>
       </c>
       <c r="P11" t="n">
-        <v>780.2807130803025</v>
+        <v>780.2807130803027</v>
       </c>
       <c r="Q11" t="n">
-        <v>800.5917935041781</v>
+        <v>800.5917935041783</v>
       </c>
       <c r="R11" t="n">
-        <v>800.5917935041781</v>
+        <v>791.8832967842325</v>
       </c>
       <c r="S11" t="n">
-        <v>800.5917935041781</v>
+        <v>632.5091265883932</v>
       </c>
       <c r="T11" t="n">
-        <v>800.5917935041781</v>
+        <v>430.3394817641057</v>
       </c>
       <c r="U11" t="n">
-        <v>800.5917935041781</v>
+        <v>228.1698369398182</v>
       </c>
       <c r="V11" t="n">
-        <v>800.5917935041781</v>
+        <v>228.1698369398182</v>
       </c>
       <c r="W11" t="n">
-        <v>800.5917935041781</v>
+        <v>218.181480694371</v>
       </c>
       <c r="X11" t="n">
-        <v>800.5917935041781</v>
+        <v>218.181480694371</v>
       </c>
       <c r="Y11" t="n">
-        <v>800.5917935041781</v>
+        <v>218.181480694371</v>
       </c>
     </row>
     <row r="12">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>800.5917935041781</v>
+        <v>450.1530518407585</v>
       </c>
       <c r="C12" t="n">
-        <v>758.3249165074653</v>
+        <v>450.1530518407585</v>
       </c>
       <c r="D12" t="n">
-        <v>609.3905068462141</v>
+        <v>450.1530518407585</v>
       </c>
       <c r="E12" t="n">
         <v>450.1530518407585</v>
@@ -5117,55 +5117,55 @@
         <v>64.47055864936223</v>
       </c>
       <c r="I12" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="J12" t="n">
-        <v>16.01183587008356</v>
+        <v>31.97419600362926</v>
       </c>
       <c r="K12" t="n">
-        <v>71.88022049063733</v>
+        <v>87.84258062418304</v>
       </c>
       <c r="L12" t="n">
-        <v>193.324699355016</v>
+        <v>209.2870594885617</v>
       </c>
       <c r="M12" t="n">
-        <v>354.4015461960063</v>
+        <v>370.3639063295522</v>
       </c>
       <c r="N12" t="n">
-        <v>534.1502627895084</v>
+        <v>550.1126229230542</v>
       </c>
       <c r="O12" t="n">
-        <v>676.3654265116696</v>
+        <v>692.3277866452155</v>
       </c>
       <c r="P12" t="n">
-        <v>771.1725670657341</v>
+        <v>787.13492719928</v>
       </c>
       <c r="Q12" t="n">
-        <v>800.5917935041781</v>
+        <v>800.5917935041783</v>
       </c>
       <c r="R12" t="n">
-        <v>800.5917935041781</v>
+        <v>800.5917935041783</v>
       </c>
       <c r="S12" t="n">
-        <v>800.5917935041781</v>
+        <v>800.5917935041783</v>
       </c>
       <c r="T12" t="n">
-        <v>800.5917935041781</v>
+        <v>603.3035164359528</v>
       </c>
       <c r="U12" t="n">
-        <v>800.5917935041781</v>
+        <v>450.1530518407585</v>
       </c>
       <c r="V12" t="n">
-        <v>800.5917935041781</v>
+        <v>450.1530518407585</v>
       </c>
       <c r="W12" t="n">
-        <v>800.5917935041781</v>
+        <v>450.1530518407585</v>
       </c>
       <c r="X12" t="n">
-        <v>800.5917935041781</v>
+        <v>450.1530518407585</v>
       </c>
       <c r="Y12" t="n">
-        <v>800.5917935041781</v>
+        <v>450.1530518407585</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.5917935041781</v>
+        <v>311.5547635517814</v>
       </c>
       <c r="C13" t="n">
-        <v>800.5917935041781</v>
+        <v>311.5547635517814</v>
       </c>
       <c r="D13" t="n">
-        <v>760.6732441412921</v>
+        <v>311.5547635517814</v>
       </c>
       <c r="E13" t="n">
-        <v>612.760150558899</v>
+        <v>311.5547635517814</v>
       </c>
       <c r="F13" t="n">
-        <v>465.8702030609887</v>
+        <v>164.6648160538711</v>
       </c>
       <c r="G13" t="n">
-        <v>297.2011714115491</v>
+        <v>164.6648160538711</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3936325055245</v>
+        <v>164.6648160538711</v>
       </c>
       <c r="I13" t="n">
-        <v>16.01183587008356</v>
+        <v>38.28301941843023</v>
       </c>
       <c r="J13" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="K13" t="n">
-        <v>67.12822618789673</v>
+        <v>109.9785846570306</v>
       </c>
       <c r="L13" t="n">
-        <v>242.8997476188504</v>
+        <v>242.8997476188506</v>
       </c>
       <c r="M13" t="n">
-        <v>438.6152950764474</v>
+        <v>438.6152950764475</v>
       </c>
       <c r="N13" t="n">
-        <v>635.1117806831135</v>
+        <v>635.1117806831137</v>
       </c>
       <c r="O13" t="n">
-        <v>800.5917935041781</v>
+        <v>800.5917935041783</v>
       </c>
       <c r="P13" t="n">
-        <v>800.5917935041781</v>
+        <v>800.5917935041783</v>
       </c>
       <c r="Q13" t="n">
-        <v>800.5917935041781</v>
+        <v>798.8722351508187</v>
       </c>
       <c r="R13" t="n">
-        <v>800.5917935041781</v>
+        <v>665.5981361857267</v>
       </c>
       <c r="S13" t="n">
-        <v>800.5917935041781</v>
+        <v>665.5981361857267</v>
       </c>
       <c r="T13" t="n">
-        <v>800.5917935041781</v>
+        <v>665.5981361857267</v>
       </c>
       <c r="U13" t="n">
-        <v>800.5917935041781</v>
+        <v>665.5981361857267</v>
       </c>
       <c r="V13" t="n">
-        <v>800.5917935041781</v>
+        <v>665.5981361857267</v>
       </c>
       <c r="W13" t="n">
-        <v>800.5917935041781</v>
+        <v>665.5981361857267</v>
       </c>
       <c r="X13" t="n">
-        <v>800.5917935041781</v>
+        <v>463.4284913614392</v>
       </c>
       <c r="Y13" t="n">
-        <v>800.5917935041781</v>
+        <v>463.4284913614392</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>800.5917935041782</v>
+        <v>387.5440071356578</v>
       </c>
       <c r="C14" t="n">
-        <v>800.5917935041782</v>
+        <v>218.1814806943711</v>
       </c>
       <c r="D14" t="n">
-        <v>800.5917935041782</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="E14" t="n">
-        <v>747.5584458527223</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="F14" t="n">
-        <v>545.388801028435</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="G14" t="n">
-        <v>343.2191562041476</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="H14" t="n">
-        <v>141.0495113798601</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="I14" t="n">
         <v>16.01183587008357</v>
@@ -5281,49 +5281,49 @@
         <v>25.71381148713658</v>
       </c>
       <c r="K14" t="n">
-        <v>90.9930762053466</v>
+        <v>90.99307620534665</v>
       </c>
       <c r="L14" t="n">
-        <v>208.8795383336703</v>
+        <v>208.8795383336704</v>
       </c>
       <c r="M14" t="n">
-        <v>371.7203791850242</v>
+        <v>371.7203791850244</v>
       </c>
       <c r="N14" t="n">
-        <v>541.8099634650437</v>
+        <v>541.809963465044</v>
       </c>
       <c r="O14" t="n">
-        <v>689.0854734804532</v>
+        <v>689.0854734804535</v>
       </c>
       <c r="P14" t="n">
-        <v>780.2807130803026</v>
+        <v>780.280713080303</v>
       </c>
       <c r="Q14" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041787</v>
       </c>
       <c r="R14" t="n">
-        <v>800.5917935041782</v>
+        <v>791.8832967842328</v>
       </c>
       <c r="S14" t="n">
-        <v>800.5917935041782</v>
+        <v>791.8832967842328</v>
       </c>
       <c r="T14" t="n">
-        <v>800.5917935041782</v>
+        <v>589.7136519599453</v>
       </c>
       <c r="U14" t="n">
-        <v>800.5917935041782</v>
+        <v>589.7136519599453</v>
       </c>
       <c r="V14" t="n">
-        <v>800.5917935041782</v>
+        <v>387.5440071356578</v>
       </c>
       <c r="W14" t="n">
-        <v>800.5917935041782</v>
+        <v>387.5440071356578</v>
       </c>
       <c r="X14" t="n">
-        <v>800.5917935041782</v>
+        <v>387.5440071356578</v>
       </c>
       <c r="Y14" t="n">
-        <v>800.5917935041782</v>
+        <v>387.5440071356578</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>401.1338716116653</v>
+        <v>168.3655423845361</v>
       </c>
       <c r="C15" t="n">
-        <v>401.1338716116653</v>
+        <v>168.3655423845361</v>
       </c>
       <c r="D15" t="n">
-        <v>401.1338716116653</v>
+        <v>19.4311327232848</v>
       </c>
       <c r="E15" t="n">
-        <v>401.1338716116653</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="F15" t="n">
-        <v>303.6184938676435</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="G15" t="n">
-        <v>166.1029202529205</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="H15" t="n">
-        <v>64.47055864936223</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="I15" t="n">
         <v>16.01183587008357</v>
       </c>
       <c r="J15" t="n">
-        <v>31.97419600362939</v>
+        <v>31.9741960036296</v>
       </c>
       <c r="K15" t="n">
-        <v>87.84258062418316</v>
+        <v>87.84258062418338</v>
       </c>
       <c r="L15" t="n">
-        <v>209.2870594885618</v>
+        <v>209.2870594885621</v>
       </c>
       <c r="M15" t="n">
-        <v>370.3639063295521</v>
+        <v>370.3639063295525</v>
       </c>
       <c r="N15" t="n">
-        <v>550.1126229230541</v>
+        <v>550.1126229230546</v>
       </c>
       <c r="O15" t="n">
-        <v>692.3277866452154</v>
+        <v>692.3277866452158</v>
       </c>
       <c r="P15" t="n">
-        <v>787.1349271992799</v>
+        <v>787.1349271992804</v>
       </c>
       <c r="Q15" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041787</v>
       </c>
       <c r="R15" t="n">
-        <v>800.5917935041782</v>
+        <v>774.8744768573987</v>
       </c>
       <c r="S15" t="n">
-        <v>800.5917935041782</v>
+        <v>774.8744768573987</v>
       </c>
       <c r="T15" t="n">
-        <v>603.3035164359527</v>
+        <v>774.8744768573987</v>
       </c>
       <c r="U15" t="n">
-        <v>401.1338716116653</v>
+        <v>572.7048320331112</v>
       </c>
       <c r="V15" t="n">
-        <v>401.1338716116653</v>
+        <v>572.7048320331112</v>
       </c>
       <c r="W15" t="n">
-        <v>401.1338716116653</v>
+        <v>370.5351872088236</v>
       </c>
       <c r="X15" t="n">
-        <v>401.1338716116653</v>
+        <v>370.5351872088236</v>
       </c>
       <c r="Y15" t="n">
-        <v>401.1338716116653</v>
+        <v>168.3655423845361</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.5917935041782</v>
+        <v>396.2525038556035</v>
       </c>
       <c r="C16" t="n">
-        <v>800.5917935041782</v>
+        <v>396.2525038556035</v>
       </c>
       <c r="D16" t="n">
-        <v>782.9444276896388</v>
+        <v>354.8651446502629</v>
       </c>
       <c r="E16" t="n">
-        <v>635.0313341072457</v>
+        <v>206.9520510678698</v>
       </c>
       <c r="F16" t="n">
-        <v>488.1413866093354</v>
+        <v>206.9520510678698</v>
       </c>
       <c r="G16" t="n">
-        <v>319.4723549598958</v>
+        <v>38.28301941843023</v>
       </c>
       <c r="H16" t="n">
-        <v>164.6648160538712</v>
+        <v>38.28301941843023</v>
       </c>
       <c r="I16" t="n">
-        <v>38.28301941843024</v>
+        <v>38.28301941843023</v>
       </c>
       <c r="J16" t="n">
         <v>16.01183587008357</v>
@@ -5448,40 +5448,40 @@
         <v>387.4989047586342</v>
       </c>
       <c r="N16" t="n">
-        <v>583.9953903653003</v>
+        <v>517.0357243879764</v>
       </c>
       <c r="O16" t="n">
-        <v>749.4754031863649</v>
+        <v>682.515737209041</v>
       </c>
       <c r="P16" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041787</v>
       </c>
       <c r="Q16" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041787</v>
       </c>
       <c r="R16" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041787</v>
       </c>
       <c r="S16" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041787</v>
       </c>
       <c r="T16" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041787</v>
       </c>
       <c r="U16" t="n">
-        <v>800.5917935041782</v>
+        <v>598.4221486798911</v>
       </c>
       <c r="V16" t="n">
-        <v>800.5917935041782</v>
+        <v>598.4221486798911</v>
       </c>
       <c r="W16" t="n">
-        <v>800.5917935041782</v>
+        <v>396.2525038556035</v>
       </c>
       <c r="X16" t="n">
-        <v>800.5917935041782</v>
+        <v>396.2525038556035</v>
       </c>
       <c r="Y16" t="n">
-        <v>800.5917935041782</v>
+        <v>396.2525038556035</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.70868883547661</v>
+        <v>545.3888010284352</v>
       </c>
       <c r="C17" t="n">
-        <v>16.01183587008357</v>
+        <v>545.3888010284352</v>
       </c>
       <c r="D17" t="n">
-        <v>16.01183587008357</v>
+        <v>343.2191562041477</v>
       </c>
       <c r="E17" t="n">
-        <v>16.01183587008357</v>
+        <v>343.2191562041477</v>
       </c>
       <c r="F17" t="n">
-        <v>16.01183587008357</v>
+        <v>141.0495113798601</v>
       </c>
       <c r="G17" t="n">
-        <v>16.01183587008357</v>
+        <v>141.0495113798601</v>
       </c>
       <c r="H17" t="n">
-        <v>16.01183587008357</v>
+        <v>141.0495113798601</v>
       </c>
       <c r="I17" t="n">
         <v>16.01183587008357</v>
       </c>
       <c r="J17" t="n">
-        <v>25.7138114871365</v>
+        <v>25.71381148713658</v>
       </c>
       <c r="K17" t="n">
-        <v>90.99307620534645</v>
+        <v>90.99307620534665</v>
       </c>
       <c r="L17" t="n">
-        <v>208.87953833367</v>
+        <v>208.8795383336704</v>
       </c>
       <c r="M17" t="n">
-        <v>371.7203791850242</v>
+        <v>371.7203791850244</v>
       </c>
       <c r="N17" t="n">
-        <v>541.8099634650437</v>
+        <v>541.809963465044</v>
       </c>
       <c r="O17" t="n">
-        <v>689.0854734804532</v>
+        <v>689.0854734804535</v>
       </c>
       <c r="P17" t="n">
-        <v>780.2807130803026</v>
+        <v>780.280713080303</v>
       </c>
       <c r="Q17" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041787</v>
       </c>
       <c r="R17" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041787</v>
       </c>
       <c r="S17" t="n">
-        <v>641.2176233083389</v>
+        <v>747.5584458527228</v>
       </c>
       <c r="T17" t="n">
-        <v>641.2176233083389</v>
+        <v>545.3888010284352</v>
       </c>
       <c r="U17" t="n">
-        <v>439.0479784840515</v>
+        <v>545.3888010284352</v>
       </c>
       <c r="V17" t="n">
-        <v>236.8783336597641</v>
+        <v>545.3888010284352</v>
       </c>
       <c r="W17" t="n">
-        <v>34.70868883547661</v>
+        <v>545.3888010284352</v>
       </c>
       <c r="X17" t="n">
-        <v>34.70868883547661</v>
+        <v>545.3888010284352</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.70868883547661</v>
+        <v>545.3888010284352</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>213.4049683106135</v>
+        <v>201.9861322640852</v>
       </c>
       <c r="C18" t="n">
-        <v>213.4049683106135</v>
+        <v>201.9861322640852</v>
       </c>
       <c r="D18" t="n">
-        <v>64.47055864936223</v>
+        <v>201.9861322640852</v>
       </c>
       <c r="E18" t="n">
-        <v>64.47055864936223</v>
+        <v>201.9861322640852</v>
       </c>
       <c r="F18" t="n">
-        <v>64.47055864936223</v>
+        <v>201.9861322640852</v>
       </c>
       <c r="G18" t="n">
         <v>64.47055864936223</v>
@@ -5594,52 +5594,52 @@
         <v>16.01183587008357</v>
       </c>
       <c r="J18" t="n">
-        <v>31.97419600362939</v>
+        <v>31.9741960036296</v>
       </c>
       <c r="K18" t="n">
-        <v>87.84258062418316</v>
+        <v>87.84258062418338</v>
       </c>
       <c r="L18" t="n">
-        <v>209.2870594885618</v>
+        <v>209.2870594885621</v>
       </c>
       <c r="M18" t="n">
-        <v>370.3639063295521</v>
+        <v>370.3639063295525</v>
       </c>
       <c r="N18" t="n">
-        <v>550.1126229230541</v>
+        <v>550.1126229230546</v>
       </c>
       <c r="O18" t="n">
-        <v>692.3277866452154</v>
+        <v>692.3277866452158</v>
       </c>
       <c r="P18" t="n">
-        <v>787.1349271992799</v>
+        <v>787.1349271992804</v>
       </c>
       <c r="Q18" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041787</v>
       </c>
       <c r="R18" t="n">
-        <v>774.8744768573982</v>
+        <v>800.5917935041787</v>
       </c>
       <c r="S18" t="n">
-        <v>624.0299015373279</v>
+        <v>800.5917935041787</v>
       </c>
       <c r="T18" t="n">
-        <v>426.7416244691024</v>
+        <v>603.3035164359532</v>
       </c>
       <c r="U18" t="n">
-        <v>224.5719796448149</v>
+        <v>572.3711141084409</v>
       </c>
       <c r="V18" t="n">
-        <v>213.4049683106135</v>
+        <v>572.3711141084409</v>
       </c>
       <c r="W18" t="n">
-        <v>213.4049683106135</v>
+        <v>370.2014692841533</v>
       </c>
       <c r="X18" t="n">
-        <v>213.4049683106135</v>
+        <v>370.2014692841533</v>
       </c>
       <c r="Y18" t="n">
-        <v>213.4049683106135</v>
+        <v>370.2014692841533</v>
       </c>
     </row>
     <row r="19">
@@ -5685,40 +5685,40 @@
         <v>387.4989047586342</v>
       </c>
       <c r="N19" t="n">
-        <v>583.9953903653003</v>
+        <v>583.9953903653004</v>
       </c>
       <c r="O19" t="n">
-        <v>749.4754031863649</v>
+        <v>749.475403186365</v>
       </c>
       <c r="P19" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041787</v>
       </c>
       <c r="Q19" t="n">
-        <v>798.8722351508186</v>
+        <v>800.5917935041787</v>
       </c>
       <c r="R19" t="n">
-        <v>798.8722351508186</v>
+        <v>800.5917935041787</v>
       </c>
       <c r="S19" t="n">
-        <v>798.8722351508186</v>
+        <v>800.5917935041787</v>
       </c>
       <c r="T19" t="n">
-        <v>596.7025903265312</v>
+        <v>598.4221486798911</v>
       </c>
       <c r="U19" t="n">
-        <v>596.7025903265312</v>
+        <v>396.2525038556035</v>
       </c>
       <c r="V19" t="n">
-        <v>394.5329455022438</v>
+        <v>218.1814806943711</v>
       </c>
       <c r="W19" t="n">
-        <v>394.5329455022438</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="X19" t="n">
-        <v>394.5329455022438</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.3633006779563</v>
+        <v>16.01183587008357</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>420.3511255186584</v>
+        <v>589.7136519599451</v>
       </c>
       <c r="C20" t="n">
-        <v>420.3511255186584</v>
+        <v>589.7136519599451</v>
       </c>
       <c r="D20" t="n">
-        <v>420.3511255186584</v>
+        <v>589.7136519599451</v>
       </c>
       <c r="E20" t="n">
-        <v>218.1814806943709</v>
+        <v>589.7136519599451</v>
       </c>
       <c r="F20" t="n">
-        <v>218.1814806943709</v>
+        <v>387.5440071356576</v>
       </c>
       <c r="G20" t="n">
-        <v>218.1814806943709</v>
+        <v>185.3743623113701</v>
       </c>
       <c r="H20" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="I20" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="J20" t="n">
-        <v>25.7138114871365</v>
+        <v>25.71381148713635</v>
       </c>
       <c r="K20" t="n">
-        <v>90.99307620534645</v>
+        <v>90.99307620534637</v>
       </c>
       <c r="L20" t="n">
-        <v>208.8795383336699</v>
+        <v>208.8795383336702</v>
       </c>
       <c r="M20" t="n">
-        <v>371.7203791850241</v>
+        <v>371.7203791850243</v>
       </c>
       <c r="N20" t="n">
-        <v>541.8099634650437</v>
+        <v>541.8099634650439</v>
       </c>
       <c r="O20" t="n">
-        <v>689.0854734804532</v>
+        <v>689.0854734804534</v>
       </c>
       <c r="P20" t="n">
-        <v>780.2807130803023</v>
+        <v>780.2807130803028</v>
       </c>
       <c r="Q20" t="n">
-        <v>800.591793504178</v>
+        <v>800.5917935041784</v>
       </c>
       <c r="R20" t="n">
-        <v>800.591793504178</v>
+        <v>791.8832967842326</v>
       </c>
       <c r="S20" t="n">
-        <v>800.591793504178</v>
+        <v>791.8832967842326</v>
       </c>
       <c r="T20" t="n">
-        <v>622.5207703429458</v>
+        <v>791.8832967842326</v>
       </c>
       <c r="U20" t="n">
-        <v>622.5207703429458</v>
+        <v>791.8832967842326</v>
       </c>
       <c r="V20" t="n">
-        <v>622.5207703429458</v>
+        <v>791.8832967842326</v>
       </c>
       <c r="W20" t="n">
-        <v>622.5207703429458</v>
+        <v>791.8832967842326</v>
       </c>
       <c r="X20" t="n">
-        <v>622.5207703429458</v>
+        <v>791.8832967842326</v>
       </c>
       <c r="Y20" t="n">
-        <v>622.5207703429458</v>
+        <v>589.7136519599451</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>16.01183587008356</v>
+        <v>452.4589411158826</v>
       </c>
       <c r="C21" t="n">
-        <v>16.01183587008356</v>
+        <v>452.4589411158826</v>
       </c>
       <c r="D21" t="n">
-        <v>16.01183587008356</v>
+        <v>303.5245314546313</v>
       </c>
       <c r="E21" t="n">
-        <v>16.01183587008356</v>
+        <v>303.5245314546313</v>
       </c>
       <c r="F21" t="n">
-        <v>16.01183587008356</v>
+        <v>255.1597710883649</v>
       </c>
       <c r="G21" t="n">
-        <v>16.01183587008356</v>
+        <v>117.6441974736419</v>
       </c>
       <c r="H21" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="I21" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="J21" t="n">
-        <v>31.97419600362917</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="K21" t="n">
-        <v>87.84258062418293</v>
+        <v>87.84258062418338</v>
       </c>
       <c r="L21" t="n">
-        <v>209.2870594885616</v>
+        <v>209.287059488562</v>
       </c>
       <c r="M21" t="n">
-        <v>370.3639063295519</v>
+        <v>370.3639063295523</v>
       </c>
       <c r="N21" t="n">
-        <v>550.1126229230539</v>
+        <v>550.1126229230543</v>
       </c>
       <c r="O21" t="n">
-        <v>692.3277866452152</v>
+        <v>692.3277866452156</v>
       </c>
       <c r="P21" t="n">
-        <v>787.1349271992797</v>
+        <v>787.1349271992801</v>
       </c>
       <c r="Q21" t="n">
-        <v>800.591793504178</v>
+        <v>800.5917935041784</v>
       </c>
       <c r="R21" t="n">
-        <v>774.874476857398</v>
+        <v>800.5917935041784</v>
       </c>
       <c r="S21" t="n">
-        <v>774.874476857398</v>
+        <v>649.7472181841081</v>
       </c>
       <c r="T21" t="n">
-        <v>774.874476857398</v>
+        <v>452.4589411158826</v>
       </c>
       <c r="U21" t="n">
-        <v>774.874476857398</v>
+        <v>452.4589411158826</v>
       </c>
       <c r="V21" t="n">
-        <v>774.874476857398</v>
+        <v>452.4589411158826</v>
       </c>
       <c r="W21" t="n">
-        <v>572.7048320331106</v>
+        <v>452.4589411158826</v>
       </c>
       <c r="X21" t="n">
-        <v>386.396817714439</v>
+        <v>452.4589411158826</v>
       </c>
       <c r="Y21" t="n">
-        <v>184.2271728901516</v>
+        <v>452.4589411158826</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>482.9777517927193</v>
+        <v>59.08920171286434</v>
       </c>
       <c r="C22" t="n">
-        <v>314.0415688648124</v>
+        <v>59.08920171286434</v>
       </c>
       <c r="D22" t="n">
-        <v>163.9249294524767</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="E22" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="F22" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="G22" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="H22" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="I22" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="J22" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="K22" t="n">
-        <v>67.12822618789673</v>
+        <v>67.12822618789718</v>
       </c>
       <c r="L22" t="n">
-        <v>242.8997476188504</v>
+        <v>242.8997476188509</v>
       </c>
       <c r="M22" t="n">
-        <v>438.6152950764474</v>
+        <v>438.6152950764478</v>
       </c>
       <c r="N22" t="n">
-        <v>635.1117806831135</v>
+        <v>635.1117806831139</v>
       </c>
       <c r="O22" t="n">
-        <v>800.591793504178</v>
+        <v>800.5917935041784</v>
       </c>
       <c r="P22" t="n">
-        <v>800.591793504178</v>
+        <v>800.5917935041784</v>
       </c>
       <c r="Q22" t="n">
-        <v>798.8722351508184</v>
+        <v>798.8722351508188</v>
       </c>
       <c r="R22" t="n">
-        <v>665.5981361857264</v>
+        <v>665.5981361857268</v>
       </c>
       <c r="S22" t="n">
-        <v>665.5981361857264</v>
+        <v>463.4284913614393</v>
       </c>
       <c r="T22" t="n">
-        <v>665.5981361857264</v>
+        <v>261.2588465371518</v>
       </c>
       <c r="U22" t="n">
-        <v>665.5981361857264</v>
+        <v>261.2588465371518</v>
       </c>
       <c r="V22" t="n">
-        <v>665.5981361857264</v>
+        <v>261.2588465371518</v>
       </c>
       <c r="W22" t="n">
-        <v>665.5981361857264</v>
+        <v>261.2588465371518</v>
       </c>
       <c r="X22" t="n">
-        <v>665.5981361857264</v>
+        <v>59.08920171286434</v>
       </c>
       <c r="Y22" t="n">
-        <v>664.6262166229591</v>
+        <v>59.08920171286434</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.2525038556034</v>
+        <v>218.1814806943709</v>
       </c>
       <c r="C23" t="n">
-        <v>396.2525038556034</v>
+        <v>218.1814806943709</v>
       </c>
       <c r="D23" t="n">
-        <v>396.2525038556034</v>
+        <v>218.1814806943709</v>
       </c>
       <c r="E23" t="n">
-        <v>194.0828590313159</v>
+        <v>218.1814806943709</v>
       </c>
       <c r="F23" t="n">
-        <v>194.0828590313159</v>
+        <v>218.1814806943709</v>
       </c>
       <c r="G23" t="n">
-        <v>194.0828590313159</v>
+        <v>218.1814806943709</v>
       </c>
       <c r="H23" t="n">
-        <v>141.0495113798601</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="I23" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="J23" t="n">
-        <v>25.71381148713658</v>
+        <v>25.7138114871365</v>
       </c>
       <c r="K23" t="n">
-        <v>90.9930762053466</v>
+        <v>90.99307620534645</v>
       </c>
       <c r="L23" t="n">
-        <v>208.8795383336703</v>
+        <v>208.87953833367</v>
       </c>
       <c r="M23" t="n">
         <v>371.7203791850242</v>
       </c>
       <c r="N23" t="n">
-        <v>541.8099634650437</v>
+        <v>541.8099634650434</v>
       </c>
       <c r="O23" t="n">
-        <v>689.0854734804532</v>
+        <v>689.0854734804529</v>
       </c>
       <c r="P23" t="n">
-        <v>780.2807130803026</v>
+        <v>780.2807130803023</v>
       </c>
       <c r="Q23" t="n">
-        <v>800.5917935041782</v>
+        <v>800.591793504178</v>
       </c>
       <c r="R23" t="n">
-        <v>800.5917935041782</v>
+        <v>800.591793504178</v>
       </c>
       <c r="S23" t="n">
-        <v>800.5917935041782</v>
+        <v>641.2176233083387</v>
       </c>
       <c r="T23" t="n">
-        <v>800.5917935041782</v>
+        <v>439.0479784840513</v>
       </c>
       <c r="U23" t="n">
-        <v>800.5917935041782</v>
+        <v>420.3511255186584</v>
       </c>
       <c r="V23" t="n">
-        <v>800.5917935041782</v>
+        <v>420.3511255186584</v>
       </c>
       <c r="W23" t="n">
-        <v>800.5917935041782</v>
+        <v>420.3511255186584</v>
       </c>
       <c r="X23" t="n">
-        <v>800.5917935041782</v>
+        <v>420.3511255186584</v>
       </c>
       <c r="Y23" t="n">
-        <v>598.4221486798908</v>
+        <v>420.3511255186584</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>339.3992748124618</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="C24" t="n">
-        <v>164.9462455313348</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="D24" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="E24" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="F24" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="G24" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="H24" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="I24" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="J24" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="K24" t="n">
         <v>71.88022049063733</v>
@@ -6077,43 +6077,43 @@
         <v>193.324699355016</v>
       </c>
       <c r="M24" t="n">
-        <v>354.4015461960063</v>
+        <v>370.3639063295519</v>
       </c>
       <c r="N24" t="n">
-        <v>534.1502627895084</v>
+        <v>550.1126229230539</v>
       </c>
       <c r="O24" t="n">
-        <v>676.3654265116696</v>
+        <v>692.3277866452152</v>
       </c>
       <c r="P24" t="n">
-        <v>787.1349271992799</v>
+        <v>787.1349271992797</v>
       </c>
       <c r="Q24" t="n">
-        <v>800.5917935041782</v>
+        <v>800.591793504178</v>
       </c>
       <c r="R24" t="n">
-        <v>800.5917935041782</v>
+        <v>800.591793504178</v>
       </c>
       <c r="S24" t="n">
-        <v>800.5917935041782</v>
+        <v>800.591793504178</v>
       </c>
       <c r="T24" t="n">
-        <v>800.5917935041782</v>
+        <v>800.591793504178</v>
       </c>
       <c r="U24" t="n">
-        <v>800.5917935041782</v>
+        <v>598.4221486798906</v>
       </c>
       <c r="V24" t="n">
-        <v>800.5917935041782</v>
+        <v>396.2525038556032</v>
       </c>
       <c r="W24" t="n">
-        <v>800.5917935041782</v>
+        <v>194.0828590313158</v>
       </c>
       <c r="X24" t="n">
-        <v>598.4221486798908</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="Y24" t="n">
-        <v>507.6146118325299</v>
+        <v>16.01183587008356</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>262.9784048905113</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="C25" t="n">
-        <v>94.04222196260443</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="D25" t="n">
-        <v>94.04222196260443</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="E25" t="n">
-        <v>94.04222196260443</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="F25" t="n">
-        <v>94.04222196260443</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="G25" t="n">
-        <v>94.04222196260443</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="H25" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="I25" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="J25" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="K25" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="L25" t="n">
         <v>191.7833573010373</v>
@@ -6162,37 +6162,37 @@
         <v>583.9953903653003</v>
       </c>
       <c r="O25" t="n">
-        <v>749.4754031863649</v>
+        <v>682.5157372090404</v>
       </c>
       <c r="P25" t="n">
-        <v>800.5917935041782</v>
+        <v>800.591793504178</v>
       </c>
       <c r="Q25" t="n">
-        <v>800.5917935041782</v>
+        <v>800.591793504178</v>
       </c>
       <c r="R25" t="n">
-        <v>667.3176945390862</v>
+        <v>800.591793504178</v>
       </c>
       <c r="S25" t="n">
-        <v>667.3176945390862</v>
+        <v>800.591793504178</v>
       </c>
       <c r="T25" t="n">
-        <v>667.3176945390862</v>
+        <v>598.4221486798906</v>
       </c>
       <c r="U25" t="n">
-        <v>667.3176945390862</v>
+        <v>396.2525038556032</v>
       </c>
       <c r="V25" t="n">
-        <v>465.1480497147988</v>
+        <v>218.1814806943709</v>
       </c>
       <c r="W25" t="n">
-        <v>465.1480497147988</v>
+        <v>218.1814806943709</v>
       </c>
       <c r="X25" t="n">
-        <v>262.9784048905113</v>
+        <v>218.1814806943709</v>
       </c>
       <c r="Y25" t="n">
-        <v>262.9784048905113</v>
+        <v>16.01183587008356</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>218.181480694371</v>
+        <v>622.5207703429458</v>
       </c>
       <c r="C26" t="n">
-        <v>218.181480694371</v>
+        <v>622.5207703429458</v>
       </c>
       <c r="D26" t="n">
-        <v>218.181480694371</v>
+        <v>622.5207703429458</v>
       </c>
       <c r="E26" t="n">
-        <v>16.01183587008357</v>
+        <v>622.5207703429458</v>
       </c>
       <c r="F26" t="n">
-        <v>16.01183587008357</v>
+        <v>420.3511255186584</v>
       </c>
       <c r="G26" t="n">
-        <v>16.01183587008357</v>
+        <v>218.1814806943709</v>
       </c>
       <c r="H26" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="I26" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="J26" t="n">
         <v>25.7138114871365</v>
       </c>
       <c r="K26" t="n">
-        <v>90.99307620534647</v>
+        <v>90.99307620534645</v>
       </c>
       <c r="L26" t="n">
-        <v>208.8795383336701</v>
+        <v>208.87953833367</v>
       </c>
       <c r="M26" t="n">
-        <v>371.7203791850243</v>
+        <v>371.7203791850242</v>
       </c>
       <c r="N26" t="n">
-        <v>541.8099634650439</v>
+        <v>541.8099634650434</v>
       </c>
       <c r="O26" t="n">
-        <v>689.0854734804534</v>
+        <v>689.0854734804529</v>
       </c>
       <c r="P26" t="n">
-        <v>780.2807130803029</v>
+        <v>780.2807130803023</v>
       </c>
       <c r="Q26" t="n">
-        <v>800.5917935041782</v>
+        <v>800.591793504178</v>
       </c>
       <c r="R26" t="n">
-        <v>800.5917935041782</v>
+        <v>800.591793504178</v>
       </c>
       <c r="S26" t="n">
-        <v>800.5917935041782</v>
+        <v>641.2176233083387</v>
       </c>
       <c r="T26" t="n">
-        <v>622.520770342946</v>
+        <v>641.2176233083387</v>
       </c>
       <c r="U26" t="n">
-        <v>622.520770342946</v>
+        <v>622.5207703429458</v>
       </c>
       <c r="V26" t="n">
-        <v>420.3511255186585</v>
+        <v>622.5207703429458</v>
       </c>
       <c r="W26" t="n">
-        <v>420.3511255186585</v>
+        <v>622.5207703429458</v>
       </c>
       <c r="X26" t="n">
-        <v>420.3511255186585</v>
+        <v>622.5207703429458</v>
       </c>
       <c r="Y26" t="n">
-        <v>420.3511255186585</v>
+        <v>622.5207703429458</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16.01183587008357</v>
+        <v>25.86752201124779</v>
       </c>
       <c r="C27" t="n">
-        <v>16.01183587008357</v>
+        <v>25.86752201124779</v>
       </c>
       <c r="D27" t="n">
-        <v>16.01183587008357</v>
+        <v>25.86752201124779</v>
       </c>
       <c r="E27" t="n">
-        <v>16.01183587008357</v>
+        <v>25.86752201124779</v>
       </c>
       <c r="F27" t="n">
-        <v>16.01183587008357</v>
+        <v>25.86752201124779</v>
       </c>
       <c r="G27" t="n">
-        <v>16.01183587008357</v>
+        <v>25.86752201124779</v>
       </c>
       <c r="H27" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="I27" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="J27" t="n">
-        <v>16.01183587008357</v>
+        <v>31.97419600362917</v>
       </c>
       <c r="K27" t="n">
-        <v>71.88022049063733</v>
+        <v>87.84258062418293</v>
       </c>
       <c r="L27" t="n">
-        <v>193.324699355016</v>
+        <v>209.2870594885616</v>
       </c>
       <c r="M27" t="n">
-        <v>354.4015461960063</v>
+        <v>370.3639063295519</v>
       </c>
       <c r="N27" t="n">
-        <v>534.1502627895084</v>
+        <v>550.1126229230539</v>
       </c>
       <c r="O27" t="n">
-        <v>692.3277866452154</v>
+        <v>692.3277866452152</v>
       </c>
       <c r="P27" t="n">
-        <v>787.1349271992799</v>
+        <v>787.1349271992797</v>
       </c>
       <c r="Q27" t="n">
-        <v>800.5917935041782</v>
+        <v>800.591793504178</v>
       </c>
       <c r="R27" t="n">
-        <v>774.8744768573982</v>
+        <v>800.591793504178</v>
       </c>
       <c r="S27" t="n">
-        <v>624.0299015373279</v>
+        <v>800.591793504178</v>
       </c>
       <c r="T27" t="n">
-        <v>622.520770342946</v>
+        <v>800.591793504178</v>
       </c>
       <c r="U27" t="n">
-        <v>420.3511255186585</v>
+        <v>800.591793504178</v>
       </c>
       <c r="V27" t="n">
-        <v>218.181480694371</v>
+        <v>800.591793504178</v>
       </c>
       <c r="W27" t="n">
-        <v>16.01183587008357</v>
+        <v>598.4221486798906</v>
       </c>
       <c r="X27" t="n">
-        <v>16.01183587008357</v>
+        <v>396.2525038556032</v>
       </c>
       <c r="Y27" t="n">
-        <v>16.01183587008357</v>
+        <v>194.0828590313158</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>166.1284752824193</v>
+        <v>214.6040390253635</v>
       </c>
       <c r="C28" t="n">
-        <v>166.1284752824193</v>
+        <v>214.6040390253635</v>
       </c>
       <c r="D28" t="n">
-        <v>16.01183587008357</v>
+        <v>64.48739961302778</v>
       </c>
       <c r="E28" t="n">
-        <v>16.01183587008357</v>
+        <v>64.48739961302778</v>
       </c>
       <c r="F28" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="G28" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="H28" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="I28" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="J28" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="K28" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="L28" t="n">
         <v>191.7833573010373</v>
@@ -6399,37 +6399,37 @@
         <v>583.9953903653003</v>
       </c>
       <c r="O28" t="n">
-        <v>749.4754031863649</v>
+        <v>682.5157372090404</v>
       </c>
       <c r="P28" t="n">
-        <v>800.5917935041782</v>
+        <v>800.591793504178</v>
       </c>
       <c r="Q28" t="n">
-        <v>798.8722351508186</v>
+        <v>800.591793504178</v>
       </c>
       <c r="R28" t="n">
-        <v>752.1162297612339</v>
+        <v>800.591793504178</v>
       </c>
       <c r="S28" t="n">
-        <v>752.1162297612339</v>
+        <v>598.4221486798906</v>
       </c>
       <c r="T28" t="n">
-        <v>752.1162297612339</v>
+        <v>598.4221486798906</v>
       </c>
       <c r="U28" t="n">
-        <v>549.9465849369465</v>
+        <v>598.4221486798906</v>
       </c>
       <c r="V28" t="n">
-        <v>347.776940112659</v>
+        <v>598.4221486798906</v>
       </c>
       <c r="W28" t="n">
-        <v>347.776940112659</v>
+        <v>598.4221486798906</v>
       </c>
       <c r="X28" t="n">
-        <v>347.776940112659</v>
+        <v>598.4221486798906</v>
       </c>
       <c r="Y28" t="n">
-        <v>347.776940112659</v>
+        <v>396.2525038556032</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>598.4221486798908</v>
+        <v>420.3511255186585</v>
       </c>
       <c r="C29" t="n">
-        <v>598.4221486798908</v>
+        <v>420.3511255186585</v>
       </c>
       <c r="D29" t="n">
-        <v>598.4221486798908</v>
+        <v>420.3511255186585</v>
       </c>
       <c r="E29" t="n">
-        <v>598.4221486798908</v>
+        <v>420.3511255186585</v>
       </c>
       <c r="F29" t="n">
-        <v>396.2525038556034</v>
+        <v>218.181480694371</v>
       </c>
       <c r="G29" t="n">
-        <v>218.181480694371</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="H29" t="n">
         <v>16.01183587008357</v>
@@ -6463,22 +6463,22 @@
         <v>16.01183587008357</v>
       </c>
       <c r="J29" t="n">
-        <v>25.7138114871365</v>
+        <v>25.71381148713658</v>
       </c>
       <c r="K29" t="n">
-        <v>90.99307620534647</v>
+        <v>90.9930762053466</v>
       </c>
       <c r="L29" t="n">
-        <v>208.8795383336698</v>
+        <v>208.8795383336703</v>
       </c>
       <c r="M29" t="n">
-        <v>371.720379185024</v>
+        <v>371.7203791850242</v>
       </c>
       <c r="N29" t="n">
         <v>541.8099634650437</v>
       </c>
       <c r="O29" t="n">
-        <v>689.0854734804531</v>
+        <v>689.0854734804532</v>
       </c>
       <c r="P29" t="n">
         <v>780.2807130803026</v>
@@ -6490,25 +6490,25 @@
         <v>800.5917935041782</v>
       </c>
       <c r="S29" t="n">
-        <v>800.5917935041782</v>
+        <v>641.2176233083389</v>
       </c>
       <c r="T29" t="n">
-        <v>800.5917935041782</v>
+        <v>439.0479784840515</v>
       </c>
       <c r="U29" t="n">
-        <v>800.5917935041782</v>
+        <v>439.0479784840515</v>
       </c>
       <c r="V29" t="n">
-        <v>800.5917935041782</v>
+        <v>439.0479784840515</v>
       </c>
       <c r="W29" t="n">
-        <v>598.4221486798908</v>
+        <v>420.3511255186585</v>
       </c>
       <c r="X29" t="n">
-        <v>598.4221486798908</v>
+        <v>420.3511255186585</v>
       </c>
       <c r="Y29" t="n">
-        <v>598.4221486798908</v>
+        <v>420.3511255186585</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>16.01183587008357</v>
       </c>
       <c r="K30" t="n">
-        <v>87.84258062418316</v>
+        <v>71.88022049063733</v>
       </c>
       <c r="L30" t="n">
-        <v>209.2870594885618</v>
+        <v>193.324699355016</v>
       </c>
       <c r="M30" t="n">
-        <v>370.3639063295521</v>
+        <v>354.4015461960063</v>
       </c>
       <c r="N30" t="n">
-        <v>550.1126229230541</v>
+        <v>534.1502627895084</v>
       </c>
       <c r="O30" t="n">
-        <v>692.3277866452154</v>
+        <v>676.3654265116696</v>
       </c>
       <c r="P30" t="n">
         <v>787.1349271992799</v>
@@ -6566,28 +6566,28 @@
         <v>800.5917935041782</v>
       </c>
       <c r="R30" t="n">
-        <v>800.5917935041782</v>
+        <v>774.8744768573982</v>
       </c>
       <c r="S30" t="n">
-        <v>800.5917935041782</v>
+        <v>774.8744768573982</v>
       </c>
       <c r="T30" t="n">
-        <v>622.520770342946</v>
+        <v>774.8744768573982</v>
       </c>
       <c r="U30" t="n">
-        <v>622.520770342946</v>
+        <v>774.8744768573982</v>
       </c>
       <c r="V30" t="n">
-        <v>420.3511255186585</v>
+        <v>588.5664625387265</v>
       </c>
       <c r="W30" t="n">
-        <v>218.181480694371</v>
+        <v>588.5664625387265</v>
       </c>
       <c r="X30" t="n">
-        <v>16.01183587008357</v>
+        <v>386.3968177144391</v>
       </c>
       <c r="Y30" t="n">
-        <v>16.01183587008357</v>
+        <v>184.2271728901516</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>394.5329455022438</v>
+        <v>59.08920171286428</v>
       </c>
       <c r="C31" t="n">
-        <v>394.5329455022438</v>
+        <v>59.08920171286428</v>
       </c>
       <c r="D31" t="n">
-        <v>394.5329455022438</v>
+        <v>59.08920171286428</v>
       </c>
       <c r="E31" t="n">
-        <v>246.6198519198506</v>
+        <v>59.08920171286428</v>
       </c>
       <c r="F31" t="n">
-        <v>170.8193747761082</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="G31" t="n">
-        <v>170.8193747761082</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="H31" t="n">
         <v>16.01183587008357</v>
@@ -6624,19 +6624,19 @@
         <v>16.01183587008357</v>
       </c>
       <c r="K31" t="n">
-        <v>16.01183587008357</v>
+        <v>109.9785846570306</v>
       </c>
       <c r="L31" t="n">
-        <v>191.7833573010373</v>
+        <v>285.7501060879844</v>
       </c>
       <c r="M31" t="n">
-        <v>387.4989047586342</v>
+        <v>481.4656535455813</v>
       </c>
       <c r="N31" t="n">
-        <v>583.9953903653003</v>
+        <v>677.9621391522473</v>
       </c>
       <c r="O31" t="n">
-        <v>749.4754031863649</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="P31" t="n">
         <v>800.5917935041782</v>
@@ -6645,28 +6645,28 @@
         <v>798.8722351508186</v>
       </c>
       <c r="R31" t="n">
-        <v>798.8722351508186</v>
+        <v>665.5981361857266</v>
       </c>
       <c r="S31" t="n">
-        <v>596.7025903265312</v>
+        <v>665.5981361857266</v>
       </c>
       <c r="T31" t="n">
-        <v>394.5329455022438</v>
+        <v>463.4284913614392</v>
       </c>
       <c r="U31" t="n">
-        <v>394.5329455022438</v>
+        <v>261.2588465371517</v>
       </c>
       <c r="V31" t="n">
-        <v>394.5329455022438</v>
+        <v>261.2588465371517</v>
       </c>
       <c r="W31" t="n">
-        <v>394.5329455022438</v>
+        <v>59.08920171286428</v>
       </c>
       <c r="X31" t="n">
-        <v>394.5329455022438</v>
+        <v>59.08920171286428</v>
       </c>
       <c r="Y31" t="n">
-        <v>394.5329455022438</v>
+        <v>59.08920171286428</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>218.181480694371</v>
+        <v>791.8832967842326</v>
       </c>
       <c r="C32" t="n">
-        <v>218.181480694371</v>
+        <v>791.8832967842326</v>
       </c>
       <c r="D32" t="n">
-        <v>218.181480694371</v>
+        <v>589.7136519599451</v>
       </c>
       <c r="E32" t="n">
-        <v>16.01183587008357</v>
+        <v>387.5440071356576</v>
       </c>
       <c r="F32" t="n">
-        <v>16.01183587008357</v>
+        <v>185.3743623113701</v>
       </c>
       <c r="G32" t="n">
         <v>16.01183587008357</v>
@@ -6700,52 +6700,52 @@
         <v>16.01183587008357</v>
       </c>
       <c r="J32" t="n">
-        <v>25.7138114871365</v>
+        <v>25.71381148713658</v>
       </c>
       <c r="K32" t="n">
-        <v>90.99307620534647</v>
+        <v>90.9930762053466</v>
       </c>
       <c r="L32" t="n">
-        <v>208.8795383336701</v>
+        <v>208.8795383336703</v>
       </c>
       <c r="M32" t="n">
-        <v>371.7203791850243</v>
+        <v>371.7203791850245</v>
       </c>
       <c r="N32" t="n">
-        <v>541.8099634650437</v>
+        <v>541.8099634650441</v>
       </c>
       <c r="O32" t="n">
-        <v>689.0854734804531</v>
+        <v>689.0854734804536</v>
       </c>
       <c r="P32" t="n">
-        <v>780.2807130803026</v>
+        <v>780.2807130803028</v>
       </c>
       <c r="Q32" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041784</v>
       </c>
       <c r="R32" t="n">
-        <v>791.8832967842324</v>
+        <v>791.8832967842326</v>
       </c>
       <c r="S32" t="n">
-        <v>632.5091265883931</v>
+        <v>791.8832967842326</v>
       </c>
       <c r="T32" t="n">
-        <v>430.3394817641056</v>
+        <v>791.8832967842326</v>
       </c>
       <c r="U32" t="n">
-        <v>228.1698369398182</v>
+        <v>791.8832967842326</v>
       </c>
       <c r="V32" t="n">
-        <v>218.181480694371</v>
+        <v>791.8832967842326</v>
       </c>
       <c r="W32" t="n">
-        <v>218.181480694371</v>
+        <v>791.8832967842326</v>
       </c>
       <c r="X32" t="n">
-        <v>218.181480694371</v>
+        <v>791.8832967842326</v>
       </c>
       <c r="Y32" t="n">
-        <v>218.181480694371</v>
+        <v>791.8832967842326</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>396.2525038556034</v>
+        <v>303.6184938676436</v>
       </c>
       <c r="C33" t="n">
-        <v>396.2525038556034</v>
+        <v>303.6184938676436</v>
       </c>
       <c r="D33" t="n">
-        <v>396.2525038556034</v>
+        <v>303.6184938676436</v>
       </c>
       <c r="E33" t="n">
-        <v>396.2525038556034</v>
+        <v>303.6184938676436</v>
       </c>
       <c r="F33" t="n">
-        <v>303.6184938676435</v>
+        <v>303.6184938676436</v>
       </c>
       <c r="G33" t="n">
         <v>166.1029202529205</v>
       </c>
       <c r="H33" t="n">
-        <v>64.47055864936223</v>
+        <v>64.47055864936225</v>
       </c>
       <c r="I33" t="n">
         <v>16.01183587008357</v>
       </c>
       <c r="J33" t="n">
-        <v>31.97419600362939</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="K33" t="n">
-        <v>87.84258062418316</v>
+        <v>87.84258062418338</v>
       </c>
       <c r="L33" t="n">
-        <v>209.2870594885618</v>
+        <v>209.287059488562</v>
       </c>
       <c r="M33" t="n">
-        <v>370.3639063295521</v>
+        <v>370.3639063295523</v>
       </c>
       <c r="N33" t="n">
-        <v>550.1126229230541</v>
+        <v>550.1126229230543</v>
       </c>
       <c r="O33" t="n">
-        <v>692.3277866452154</v>
+        <v>692.3277866452156</v>
       </c>
       <c r="P33" t="n">
-        <v>787.1349271992799</v>
+        <v>787.1349271992801</v>
       </c>
       <c r="Q33" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041784</v>
       </c>
       <c r="R33" t="n">
-        <v>800.5917935041782</v>
+        <v>774.8744768573985</v>
       </c>
       <c r="S33" t="n">
-        <v>800.5917935041782</v>
+        <v>774.8744768573985</v>
       </c>
       <c r="T33" t="n">
-        <v>800.5917935041782</v>
+        <v>774.8744768573985</v>
       </c>
       <c r="U33" t="n">
-        <v>598.4221486798908</v>
+        <v>572.704832033111</v>
       </c>
       <c r="V33" t="n">
-        <v>396.2525038556034</v>
+        <v>505.7881386919311</v>
       </c>
       <c r="W33" t="n">
-        <v>396.2525038556034</v>
+        <v>505.7881386919311</v>
       </c>
       <c r="X33" t="n">
-        <v>396.2525038556034</v>
+        <v>303.6184938676436</v>
       </c>
       <c r="Y33" t="n">
-        <v>396.2525038556034</v>
+        <v>303.6184938676436</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.5917935041782</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="C34" t="n">
-        <v>800.5917935041782</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="D34" t="n">
-        <v>760.6732441412921</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="E34" t="n">
-        <v>612.760150558899</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="F34" t="n">
-        <v>465.8702030609887</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="G34" t="n">
-        <v>297.2011714115491</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3936325055245</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="I34" t="n">
         <v>16.01183587008357</v>
@@ -6861,49 +6861,49 @@
         <v>16.01183587008357</v>
       </c>
       <c r="K34" t="n">
+        <v>109.9785846570306</v>
+      </c>
+      <c r="L34" t="n">
+        <v>285.7501060879844</v>
+      </c>
+      <c r="M34" t="n">
+        <v>481.4656535455813</v>
+      </c>
+      <c r="N34" t="n">
+        <v>677.9621391522473</v>
+      </c>
+      <c r="O34" t="n">
+        <v>800.5917935041784</v>
+      </c>
+      <c r="P34" t="n">
+        <v>800.5917935041784</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>800.5917935041784</v>
+      </c>
+      <c r="R34" t="n">
+        <v>800.5917935041784</v>
+      </c>
+      <c r="S34" t="n">
+        <v>800.5917935041784</v>
+      </c>
+      <c r="T34" t="n">
+        <v>622.5207703429461</v>
+      </c>
+      <c r="U34" t="n">
+        <v>420.3511255186586</v>
+      </c>
+      <c r="V34" t="n">
+        <v>218.1814806943711</v>
+      </c>
+      <c r="W34" t="n">
         <v>16.01183587008357</v>
       </c>
-      <c r="L34" t="n">
-        <v>191.7833573010373</v>
-      </c>
-      <c r="M34" t="n">
-        <v>387.4989047586342</v>
-      </c>
-      <c r="N34" t="n">
-        <v>583.9953903653003</v>
-      </c>
-      <c r="O34" t="n">
-        <v>749.4754031863649</v>
-      </c>
-      <c r="P34" t="n">
-        <v>800.5917935041782</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>800.5917935041782</v>
-      </c>
-      <c r="R34" t="n">
-        <v>800.5917935041782</v>
-      </c>
-      <c r="S34" t="n">
-        <v>800.5917935041782</v>
-      </c>
-      <c r="T34" t="n">
-        <v>800.5917935041782</v>
-      </c>
-      <c r="U34" t="n">
-        <v>800.5917935041782</v>
-      </c>
-      <c r="V34" t="n">
-        <v>800.5917935041782</v>
-      </c>
-      <c r="W34" t="n">
-        <v>800.5917935041782</v>
-      </c>
       <c r="X34" t="n">
-        <v>800.5917935041782</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="Y34" t="n">
-        <v>800.5917935041782</v>
+        <v>16.01183587008357</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>420.3511255186585</v>
+        <v>545.388801028435</v>
       </c>
       <c r="C35" t="n">
-        <v>218.181480694371</v>
+        <v>545.388801028435</v>
       </c>
       <c r="D35" t="n">
-        <v>16.01183587008357</v>
+        <v>545.388801028435</v>
       </c>
       <c r="E35" t="n">
-        <v>16.01183587008357</v>
+        <v>545.388801028435</v>
       </c>
       <c r="F35" t="n">
-        <v>16.01183587008357</v>
+        <v>343.2191562041476</v>
       </c>
       <c r="G35" t="n">
-        <v>16.01183587008357</v>
+        <v>141.0495113798601</v>
       </c>
       <c r="H35" t="n">
-        <v>16.01183587008357</v>
+        <v>141.0495113798601</v>
       </c>
       <c r="I35" t="n">
         <v>16.01183587008357</v>
       </c>
       <c r="J35" t="n">
-        <v>25.71381148713658</v>
+        <v>25.7138114871365</v>
       </c>
       <c r="K35" t="n">
-        <v>90.9930762053466</v>
+        <v>90.99307620534645</v>
       </c>
       <c r="L35" t="n">
-        <v>208.8795383336703</v>
+        <v>208.87953833367</v>
       </c>
       <c r="M35" t="n">
         <v>371.7203791850242</v>
@@ -6961,28 +6961,28 @@
         <v>800.5917935041782</v>
       </c>
       <c r="R35" t="n">
-        <v>800.5917935041782</v>
+        <v>791.8832967842324</v>
       </c>
       <c r="S35" t="n">
-        <v>800.5917935041782</v>
+        <v>791.8832967842324</v>
       </c>
       <c r="T35" t="n">
-        <v>800.5917935041782</v>
+        <v>791.8832967842324</v>
       </c>
       <c r="U35" t="n">
-        <v>800.5917935041782</v>
+        <v>747.5584458527223</v>
       </c>
       <c r="V35" t="n">
-        <v>800.5917935041782</v>
+        <v>545.388801028435</v>
       </c>
       <c r="W35" t="n">
-        <v>800.5917935041782</v>
+        <v>545.388801028435</v>
       </c>
       <c r="X35" t="n">
-        <v>800.5917935041782</v>
+        <v>545.388801028435</v>
       </c>
       <c r="Y35" t="n">
-        <v>598.4221486798908</v>
+        <v>545.388801028435</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>800.5917935041782</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="C36" t="n">
-        <v>709.8661937281867</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="D36" t="n">
-        <v>560.9317840669354</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="E36" t="n">
-        <v>401.6943290614799</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="F36" t="n">
-        <v>255.1597710883649</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="G36" t="n">
-        <v>117.6441974736419</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="H36" t="n">
         <v>16.01183587008357</v>
@@ -7016,19 +7016,19 @@
         <v>16.01183587008357</v>
       </c>
       <c r="J36" t="n">
-        <v>31.97419600362939</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="K36" t="n">
-        <v>87.84258062418316</v>
+        <v>71.88022049063733</v>
       </c>
       <c r="L36" t="n">
-        <v>209.2870594885618</v>
+        <v>193.324699355016</v>
       </c>
       <c r="M36" t="n">
-        <v>370.3639063295521</v>
+        <v>354.4015461960063</v>
       </c>
       <c r="N36" t="n">
-        <v>550.1126229230541</v>
+        <v>534.1502627895084</v>
       </c>
       <c r="O36" t="n">
         <v>692.3277866452154</v>
@@ -7040,28 +7040,28 @@
         <v>800.5917935041782</v>
       </c>
       <c r="R36" t="n">
-        <v>800.5917935041782</v>
+        <v>774.8744768573982</v>
       </c>
       <c r="S36" t="n">
-        <v>800.5917935041782</v>
+        <v>624.0299015373279</v>
       </c>
       <c r="T36" t="n">
-        <v>800.5917935041782</v>
+        <v>426.7416244691024</v>
       </c>
       <c r="U36" t="n">
-        <v>800.5917935041782</v>
+        <v>224.5719796448149</v>
       </c>
       <c r="V36" t="n">
-        <v>800.5917935041782</v>
+        <v>22.40233482052747</v>
       </c>
       <c r="W36" t="n">
-        <v>800.5917935041782</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="X36" t="n">
-        <v>800.5917935041782</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="Y36" t="n">
-        <v>800.5917935041782</v>
+        <v>16.01183587008357</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>634.8063859888956</v>
+        <v>310.814876950387</v>
       </c>
       <c r="C37" t="n">
-        <v>465.8702030609887</v>
+        <v>310.814876950387</v>
       </c>
       <c r="D37" t="n">
-        <v>465.8702030609887</v>
+        <v>310.814876950387</v>
       </c>
       <c r="E37" t="n">
-        <v>465.8702030609887</v>
+        <v>162.9017833679939</v>
       </c>
       <c r="F37" t="n">
-        <v>465.8702030609887</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="G37" t="n">
-        <v>297.2011714115491</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3936325055245</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="I37" t="n">
         <v>16.01183587008357</v>
@@ -7098,19 +7098,19 @@
         <v>16.01183587008357</v>
       </c>
       <c r="K37" t="n">
-        <v>16.01183587008357</v>
+        <v>109.9785846570306</v>
       </c>
       <c r="L37" t="n">
-        <v>191.7833573010373</v>
+        <v>285.7501060879844</v>
       </c>
       <c r="M37" t="n">
-        <v>387.4989047586342</v>
+        <v>438.6152950764476</v>
       </c>
       <c r="N37" t="n">
-        <v>583.9953903653003</v>
+        <v>635.1117806831137</v>
       </c>
       <c r="O37" t="n">
-        <v>749.4754031863649</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="P37" t="n">
         <v>800.5917935041782</v>
@@ -7119,28 +7119,28 @@
         <v>798.8722351508186</v>
       </c>
       <c r="R37" t="n">
-        <v>798.8722351508186</v>
+        <v>715.1541665989619</v>
       </c>
       <c r="S37" t="n">
-        <v>798.8722351508186</v>
+        <v>512.9845217746745</v>
       </c>
       <c r="T37" t="n">
-        <v>798.8722351508186</v>
+        <v>310.814876950387</v>
       </c>
       <c r="U37" t="n">
-        <v>798.8722351508186</v>
+        <v>310.814876950387</v>
       </c>
       <c r="V37" t="n">
-        <v>798.8722351508186</v>
+        <v>310.814876950387</v>
       </c>
       <c r="W37" t="n">
-        <v>798.8722351508186</v>
+        <v>310.814876950387</v>
       </c>
       <c r="X37" t="n">
-        <v>634.8063859888956</v>
+        <v>310.814876950387</v>
       </c>
       <c r="Y37" t="n">
-        <v>634.8063859888956</v>
+        <v>310.814876950387</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>800.5917935041782</v>
+      </c>
+      <c r="C38" t="n">
+        <v>800.5917935041782</v>
+      </c>
+      <c r="D38" t="n">
         <v>622.520770342946</v>
       </c>
-      <c r="C38" t="n">
+      <c r="E38" t="n">
         <v>420.3511255186585</v>
       </c>
-      <c r="D38" t="n">
-        <v>420.3511255186585</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>218.181480694371</v>
-      </c>
-      <c r="F38" t="n">
-        <v>16.01183587008357</v>
       </c>
       <c r="G38" t="n">
         <v>16.01183587008357</v>
@@ -7174,19 +7174,19 @@
         <v>16.01183587008357</v>
       </c>
       <c r="J38" t="n">
-        <v>25.7138114871365</v>
+        <v>25.71381148713635</v>
       </c>
       <c r="K38" t="n">
-        <v>90.99307620534645</v>
+        <v>90.99307620534614</v>
       </c>
       <c r="L38" t="n">
-        <v>208.8795383336699</v>
+        <v>208.8795383336698</v>
       </c>
       <c r="M38" t="n">
-        <v>371.7203791850241</v>
+        <v>371.7203791850239</v>
       </c>
       <c r="N38" t="n">
-        <v>541.8099634650437</v>
+        <v>541.8099634650436</v>
       </c>
       <c r="O38" t="n">
         <v>689.0854734804532</v>
@@ -7210,16 +7210,16 @@
         <v>800.5917935041782</v>
       </c>
       <c r="V38" t="n">
-        <v>622.520770342946</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="W38" t="n">
-        <v>622.520770342946</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="X38" t="n">
-        <v>622.520770342946</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="Y38" t="n">
-        <v>622.520770342946</v>
+        <v>800.5917935041782</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>387.8579975917405</v>
+        <v>470.7182585099054</v>
       </c>
       <c r="C39" t="n">
-        <v>213.4049683106135</v>
+        <v>470.7182585099054</v>
       </c>
       <c r="D39" t="n">
-        <v>64.47055864936223</v>
+        <v>321.7838488486541</v>
       </c>
       <c r="E39" t="n">
-        <v>64.47055864936223</v>
+        <v>162.5463938431986</v>
       </c>
       <c r="F39" t="n">
-        <v>64.47055864936223</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="G39" t="n">
-        <v>64.47055864936223</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="H39" t="n">
-        <v>64.47055864936223</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="I39" t="n">
         <v>16.01183587008357</v>
@@ -7256,49 +7256,49 @@
         <v>16.01183587008357</v>
       </c>
       <c r="K39" t="n">
-        <v>87.84258062418316</v>
+        <v>71.88022049063733</v>
       </c>
       <c r="L39" t="n">
-        <v>209.2870594885618</v>
+        <v>193.324699355016</v>
       </c>
       <c r="M39" t="n">
-        <v>370.3639063295521</v>
+        <v>354.4015461960063</v>
       </c>
       <c r="N39" t="n">
-        <v>550.1126229230541</v>
+        <v>534.1502627895084</v>
       </c>
       <c r="O39" t="n">
-        <v>692.3277866452154</v>
+        <v>676.3654265116696</v>
       </c>
       <c r="P39" t="n">
-        <v>787.1349271992799</v>
+        <v>771.1725670657341</v>
       </c>
       <c r="Q39" t="n">
         <v>800.5917935041782</v>
       </c>
       <c r="R39" t="n">
-        <v>774.8744768573982</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="S39" t="n">
-        <v>758.242979436096</v>
+        <v>649.7472181841079</v>
       </c>
       <c r="T39" t="n">
-        <v>758.242979436096</v>
+        <v>649.7472181841079</v>
       </c>
       <c r="U39" t="n">
-        <v>758.242979436096</v>
+        <v>470.7182585099054</v>
       </c>
       <c r="V39" t="n">
-        <v>758.242979436096</v>
+        <v>470.7182585099054</v>
       </c>
       <c r="W39" t="n">
-        <v>556.0733346118086</v>
+        <v>470.7182585099054</v>
       </c>
       <c r="X39" t="n">
-        <v>556.0733346118086</v>
+        <v>470.7182585099054</v>
       </c>
       <c r="Y39" t="n">
-        <v>556.0733346118086</v>
+        <v>470.7182585099054</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>194.0828590313159</v>
+        <v>261.2588465371517</v>
       </c>
       <c r="C40" t="n">
-        <v>194.0828590313159</v>
+        <v>261.2588465371517</v>
       </c>
       <c r="D40" t="n">
-        <v>194.0828590313159</v>
+        <v>111.142207124816</v>
       </c>
       <c r="E40" t="n">
-        <v>194.0828590313159</v>
+        <v>111.142207124816</v>
       </c>
       <c r="F40" t="n">
-        <v>194.0828590313159</v>
+        <v>111.142207124816</v>
       </c>
       <c r="G40" t="n">
-        <v>170.8193747761082</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="H40" t="n">
         <v>16.01183587008357</v>
@@ -7335,13 +7335,13 @@
         <v>16.01183587008357</v>
       </c>
       <c r="K40" t="n">
-        <v>16.01183587008357</v>
+        <v>109.9785846570306</v>
       </c>
       <c r="L40" t="n">
-        <v>191.7833573010373</v>
+        <v>285.7501060879844</v>
       </c>
       <c r="M40" t="n">
-        <v>387.4989047586342</v>
+        <v>481.4656535455813</v>
       </c>
       <c r="N40" t="n">
         <v>517.035724387976</v>
@@ -7353,31 +7353,31 @@
         <v>800.5917935041782</v>
       </c>
       <c r="Q40" t="n">
-        <v>800.5917935041782</v>
+        <v>798.8722351508186</v>
       </c>
       <c r="R40" t="n">
-        <v>800.5917935041782</v>
+        <v>665.5981361857266</v>
       </c>
       <c r="S40" t="n">
-        <v>598.4221486798908</v>
+        <v>665.5981361857266</v>
       </c>
       <c r="T40" t="n">
-        <v>396.2525038556034</v>
+        <v>665.5981361857266</v>
       </c>
       <c r="U40" t="n">
-        <v>396.2525038556034</v>
+        <v>665.5981361857266</v>
       </c>
       <c r="V40" t="n">
-        <v>194.0828590313159</v>
+        <v>665.5981361857266</v>
       </c>
       <c r="W40" t="n">
-        <v>194.0828590313159</v>
+        <v>463.4284913614392</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0828590313159</v>
+        <v>261.2588465371517</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.0828590313159</v>
+        <v>261.2588465371517</v>
       </c>
     </row>
     <row r="41">
@@ -7390,16 +7390,16 @@
         <v>622.5207703429458</v>
       </c>
       <c r="C41" t="n">
-        <v>622.5207703429458</v>
+        <v>420.3511255186584</v>
       </c>
       <c r="D41" t="n">
-        <v>622.5207703429458</v>
+        <v>218.181480694371</v>
       </c>
       <c r="E41" t="n">
-        <v>420.3511255186584</v>
+        <v>218.181480694371</v>
       </c>
       <c r="F41" t="n">
-        <v>218.1814806943709</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="G41" t="n">
         <v>16.01183587008356</v>
@@ -7411,46 +7411,46 @@
         <v>16.01183587008356</v>
       </c>
       <c r="J41" t="n">
-        <v>25.7138114871365</v>
+        <v>25.71381148713658</v>
       </c>
       <c r="K41" t="n">
-        <v>90.99307620534645</v>
+        <v>90.9930762053466</v>
       </c>
       <c r="L41" t="n">
-        <v>208.8795383336698</v>
+        <v>208.8795383336703</v>
       </c>
       <c r="M41" t="n">
-        <v>371.7203791850238</v>
+        <v>371.7203791850242</v>
       </c>
       <c r="N41" t="n">
-        <v>541.8099634650434</v>
+        <v>541.8099634650436</v>
       </c>
       <c r="O41" t="n">
-        <v>689.0854734804529</v>
+        <v>689.0854734804532</v>
       </c>
       <c r="P41" t="n">
-        <v>780.2807130803023</v>
+        <v>780.2807130803025</v>
       </c>
       <c r="Q41" t="n">
-        <v>800.591793504178</v>
+        <v>800.5917935041781</v>
       </c>
       <c r="R41" t="n">
-        <v>791.8832967842321</v>
+        <v>791.8832967842322</v>
       </c>
       <c r="S41" t="n">
-        <v>632.5091265883929</v>
+        <v>791.8832967842322</v>
       </c>
       <c r="T41" t="n">
-        <v>622.5207703429458</v>
+        <v>791.8832967842322</v>
       </c>
       <c r="U41" t="n">
-        <v>622.5207703429458</v>
+        <v>791.8832967842322</v>
       </c>
       <c r="V41" t="n">
-        <v>622.5207703429458</v>
+        <v>791.8832967842322</v>
       </c>
       <c r="W41" t="n">
-        <v>622.5207703429458</v>
+        <v>791.8832967842322</v>
       </c>
       <c r="X41" t="n">
         <v>622.5207703429458</v>
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.01183587008356</v>
+        <v>598.4221486798907</v>
       </c>
       <c r="C42" t="n">
-        <v>16.01183587008356</v>
+        <v>598.4221486798907</v>
       </c>
       <c r="D42" t="n">
-        <v>16.01183587008356</v>
+        <v>449.4877390186394</v>
       </c>
       <c r="E42" t="n">
-        <v>16.01183587008356</v>
+        <v>290.2502840131839</v>
       </c>
       <c r="F42" t="n">
-        <v>16.01183587008356</v>
+        <v>143.7157260400689</v>
       </c>
       <c r="G42" t="n">
         <v>16.01183587008356</v>
@@ -7490,52 +7490,52 @@
         <v>16.01183587008356</v>
       </c>
       <c r="J42" t="n">
-        <v>16.01183587008356</v>
+        <v>31.97419600362928</v>
       </c>
       <c r="K42" t="n">
-        <v>71.88022049063733</v>
+        <v>87.84258062418304</v>
       </c>
       <c r="L42" t="n">
-        <v>209.2870594885616</v>
+        <v>209.2870594885617</v>
       </c>
       <c r="M42" t="n">
-        <v>370.3639063295519</v>
+        <v>370.363906329552</v>
       </c>
       <c r="N42" t="n">
-        <v>550.1126229230539</v>
+        <v>550.112622923054</v>
       </c>
       <c r="O42" t="n">
-        <v>692.3277866452152</v>
+        <v>692.3277866452153</v>
       </c>
       <c r="P42" t="n">
-        <v>787.1349271992797</v>
+        <v>787.1349271992798</v>
       </c>
       <c r="Q42" t="n">
-        <v>800.591793504178</v>
+        <v>800.5917935041781</v>
       </c>
       <c r="R42" t="n">
-        <v>774.874476857398</v>
+        <v>800.5917935041781</v>
       </c>
       <c r="S42" t="n">
-        <v>774.874476857398</v>
+        <v>800.5917935041781</v>
       </c>
       <c r="T42" t="n">
-        <v>622.5207703429458</v>
+        <v>800.5917935041781</v>
       </c>
       <c r="U42" t="n">
-        <v>420.3511255186584</v>
+        <v>800.5917935041781</v>
       </c>
       <c r="V42" t="n">
-        <v>218.1814806943709</v>
+        <v>800.5917935041781</v>
       </c>
       <c r="W42" t="n">
-        <v>16.01183587008356</v>
+        <v>598.4221486798907</v>
       </c>
       <c r="X42" t="n">
-        <v>16.01183587008356</v>
+        <v>598.4221486798907</v>
       </c>
       <c r="Y42" t="n">
-        <v>16.01183587008356</v>
+        <v>598.4221486798907</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>194.0828590313158</v>
+        <v>194.0828590313159</v>
       </c>
       <c r="C43" t="n">
-        <v>194.0828590313158</v>
+        <v>194.0828590313159</v>
       </c>
       <c r="D43" t="n">
-        <v>194.0828590313158</v>
+        <v>194.0828590313159</v>
       </c>
       <c r="E43" t="n">
-        <v>194.0828590313158</v>
+        <v>162.9017833679939</v>
       </c>
       <c r="F43" t="n">
-        <v>194.0828590313158</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="G43" t="n">
-        <v>25.41382738187622</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="H43" t="n">
-        <v>25.41382738187622</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="I43" t="n">
-        <v>25.41382738187622</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="J43" t="n">
         <v>16.01183587008356</v>
@@ -7587,34 +7587,34 @@
         <v>749.4754031863649</v>
       </c>
       <c r="P43" t="n">
-        <v>800.591793504178</v>
+        <v>800.5917935041781</v>
       </c>
       <c r="Q43" t="n">
-        <v>800.591793504178</v>
+        <v>800.5917935041781</v>
       </c>
       <c r="R43" t="n">
-        <v>800.591793504178</v>
+        <v>800.5917935041781</v>
       </c>
       <c r="S43" t="n">
-        <v>800.591793504178</v>
+        <v>598.4221486798907</v>
       </c>
       <c r="T43" t="n">
-        <v>598.4221486798906</v>
+        <v>396.2525038556033</v>
       </c>
       <c r="U43" t="n">
-        <v>598.4221486798906</v>
+        <v>194.0828590313159</v>
       </c>
       <c r="V43" t="n">
-        <v>598.4221486798906</v>
+        <v>194.0828590313159</v>
       </c>
       <c r="W43" t="n">
-        <v>396.2525038556032</v>
+        <v>194.0828590313159</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0828590313158</v>
+        <v>194.0828590313159</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.0828590313158</v>
+        <v>194.0828590313159</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.01183587008356</v>
+        <v>343.2191562041476</v>
       </c>
       <c r="C44" t="n">
-        <v>16.01183587008356</v>
+        <v>343.2191562041476</v>
       </c>
       <c r="D44" t="n">
-        <v>16.01183587008356</v>
+        <v>343.2191562041476</v>
       </c>
       <c r="E44" t="n">
-        <v>16.01183587008356</v>
+        <v>343.2191562041476</v>
       </c>
       <c r="F44" t="n">
-        <v>16.01183587008356</v>
+        <v>343.2191562041476</v>
       </c>
       <c r="G44" t="n">
-        <v>16.01183587008356</v>
+        <v>141.0495113798601</v>
       </c>
       <c r="H44" t="n">
-        <v>16.01183587008356</v>
+        <v>141.0495113798601</v>
       </c>
       <c r="I44" t="n">
         <v>16.01183587008356</v>
       </c>
       <c r="J44" t="n">
-        <v>25.71381148713658</v>
+        <v>25.71381148713598</v>
       </c>
       <c r="K44" t="n">
-        <v>90.9930762053466</v>
+        <v>90.99307620534596</v>
       </c>
       <c r="L44" t="n">
-        <v>208.8795383336703</v>
+        <v>208.8795383336696</v>
       </c>
       <c r="M44" t="n">
-        <v>371.7203791850242</v>
+        <v>371.7203791850238</v>
       </c>
       <c r="N44" t="n">
-        <v>541.8099634650436</v>
+        <v>541.8099634650434</v>
       </c>
       <c r="O44" t="n">
-        <v>689.0854734804532</v>
+        <v>689.0854734804529</v>
       </c>
       <c r="P44" t="n">
         <v>780.2807130803025</v>
@@ -7675,25 +7675,25 @@
         <v>791.8832967842322</v>
       </c>
       <c r="S44" t="n">
-        <v>632.509126588393</v>
+        <v>791.8832967842322</v>
       </c>
       <c r="T44" t="n">
-        <v>430.3394817641056</v>
+        <v>791.8832967842322</v>
       </c>
       <c r="U44" t="n">
-        <v>420.3511255186584</v>
+        <v>589.7136519599449</v>
       </c>
       <c r="V44" t="n">
-        <v>420.3511255186584</v>
+        <v>387.5440071356575</v>
       </c>
       <c r="W44" t="n">
-        <v>218.181480694371</v>
+        <v>343.2191562041476</v>
       </c>
       <c r="X44" t="n">
-        <v>218.181480694371</v>
+        <v>343.2191562041476</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.01183587008356</v>
+        <v>343.2191562041476</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>782.6868614057554</v>
+        <v>48.11965146730739</v>
       </c>
       <c r="C45" t="n">
-        <v>608.2338321246284</v>
+        <v>48.11965146730739</v>
       </c>
       <c r="D45" t="n">
-        <v>459.2994224633771</v>
+        <v>48.11965146730739</v>
       </c>
       <c r="E45" t="n">
-        <v>300.0619674579216</v>
+        <v>48.11965146730739</v>
       </c>
       <c r="F45" t="n">
-        <v>153.5274094848066</v>
+        <v>48.11965146730739</v>
       </c>
       <c r="G45" t="n">
         <v>16.01183587008356</v>
@@ -7727,16 +7727,16 @@
         <v>16.01183587008356</v>
       </c>
       <c r="J45" t="n">
-        <v>31.97419600362928</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="K45" t="n">
-        <v>87.84258062418304</v>
+        <v>71.88022049063733</v>
       </c>
       <c r="L45" t="n">
-        <v>209.2870594885617</v>
+        <v>193.324699355016</v>
       </c>
       <c r="M45" t="n">
-        <v>370.363906329552</v>
+        <v>354.4015461960063</v>
       </c>
       <c r="N45" t="n">
         <v>550.112622923054</v>
@@ -7754,25 +7754,25 @@
         <v>800.5917935041781</v>
       </c>
       <c r="S45" t="n">
-        <v>800.5917935041781</v>
+        <v>649.7472181841077</v>
       </c>
       <c r="T45" t="n">
-        <v>800.5917935041781</v>
+        <v>452.4589411158822</v>
       </c>
       <c r="U45" t="n">
-        <v>800.5917935041781</v>
+        <v>452.4589411158822</v>
       </c>
       <c r="V45" t="n">
-        <v>800.5917935041781</v>
+        <v>250.2892962915948</v>
       </c>
       <c r="W45" t="n">
-        <v>782.6868614057554</v>
+        <v>48.11965146730739</v>
       </c>
       <c r="X45" t="n">
-        <v>782.6868614057554</v>
+        <v>48.11965146730739</v>
       </c>
       <c r="Y45" t="n">
-        <v>782.6868614057554</v>
+        <v>48.11965146730739</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>396.2525038556033</v>
+        <v>214.6040390253636</v>
       </c>
       <c r="C46" t="n">
-        <v>396.2525038556033</v>
+        <v>45.66785609745671</v>
       </c>
       <c r="D46" t="n">
-        <v>396.2525038556033</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="E46" t="n">
-        <v>248.3394102732102</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="F46" t="n">
-        <v>184.6808675195232</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="G46" t="n">
         <v>16.01183587008356</v>
@@ -7833,16 +7833,16 @@
         <v>800.5917935041781</v>
       </c>
       <c r="S46" t="n">
-        <v>800.5917935041781</v>
+        <v>598.4221486798907</v>
       </c>
       <c r="T46" t="n">
         <v>598.4221486798907</v>
       </c>
       <c r="U46" t="n">
-        <v>396.2525038556033</v>
+        <v>598.4221486798907</v>
       </c>
       <c r="V46" t="n">
-        <v>396.2525038556033</v>
+        <v>598.4221486798907</v>
       </c>
       <c r="W46" t="n">
         <v>396.2525038556033</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>13.17112802491195</v>
+        <v>29.29472411940254</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>16.1235960944906</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8850,10 +8850,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>63.46057597179</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>162.4747015415544</v>
+        <v>119.191511168692</v>
       </c>
       <c r="M13" t="n">
         <v>178.5096609094456</v>
@@ -8865,7 +8865,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
-        <v>15.73781958157885</v>
+        <v>15.73781958157883</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>29.29472411940269</v>
+        <v>29.29472411940288</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>11.82785847904943</v>
+        <v>11.82785847904941</v>
       </c>
       <c r="L16" t="n">
         <v>162.4747015415544</v>
@@ -9096,13 +9096,13 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>171.8177168444618</v>
+        <v>104.1816906047406</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>67.37053707431954</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>29.29472411940269</v>
+        <v>29.29472411940288</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>11.82785847904943</v>
+        <v>11.82785847904941</v>
       </c>
       <c r="L19" t="n">
         <v>162.4747015415544</v>
@@ -9339,7 +9339,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P19" t="n">
-        <v>67.37053707431954</v>
+        <v>67.37053707431987</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>29.29472411940246</v>
+        <v>13.17112802491195</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>16.12359609449096</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9561,7 +9561,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>63.46057597179</v>
+        <v>63.46057597179045</v>
       </c>
       <c r="L22" t="n">
         <v>162.4747015415544</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>16.12359609449049</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>16.12359609449068</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9810,10 +9810,10 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O25" t="n">
-        <v>163.0416663658825</v>
+        <v>95.40564012616075</v>
       </c>
       <c r="P25" t="n">
-        <v>67.37053707431954</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>13.17112802491195</v>
+        <v>29.29472411940246</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>16.12359609449069</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10047,10 +10047,10 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>95.40564012616075</v>
       </c>
       <c r="P28" t="n">
-        <v>67.37053707431954</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10193,7 +10193,7 @@
         <v>13.17112802491195</v>
       </c>
       <c r="K30" t="n">
-        <v>16.12359609449074</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>16.12359609449068</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>11.82785847904943</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
         <v>162.4747015415544</v>
@@ -10284,10 +10284,10 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>119.7584759930201</v>
       </c>
       <c r="P31" t="n">
-        <v>67.37053707431954</v>
+        <v>15.73781958157885</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>29.29472411940269</v>
+        <v>13.17112802491195</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>16.12359609449096</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>11.82785847904943</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
         <v>162.4747015415544</v>
@@ -10521,10 +10521,10 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>119.7584759930204</v>
       </c>
       <c r="P34" t="n">
-        <v>67.37053707431954</v>
+        <v>15.73781958157885</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>29.29472411940269</v>
+        <v>13.17112802491195</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>16.12359609449069</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10746,13 +10746,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>11.82785847904943</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>135.2264705365833</v>
       </c>
       <c r="N37" t="n">
         <v>171.8177168444618</v>
@@ -10761,7 +10761,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>67.37053707431954</v>
+        <v>15.73781958157885</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10904,7 +10904,7 @@
         <v>13.17112802491195</v>
       </c>
       <c r="K39" t="n">
-        <v>16.12359609449074</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>16.12359609449071</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,7 +10983,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>11.82785847904943</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
         <v>162.4747015415544</v>
@@ -10992,7 +10992,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
-        <v>104.1816906047403</v>
+        <v>9.265782739137101</v>
       </c>
       <c r="O40" t="n">
         <v>163.0416663658825</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>13.17112802491195</v>
+        <v>29.29472411940258</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>16.12359609449049</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11235,7 +11235,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
-        <v>67.37053707431932</v>
+        <v>67.37053707431943</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>29.29472411940258</v>
+        <v>13.17112802491195</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>16.12359609449061</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>329.4273558973206</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>206.7280973656669</v>
       </c>
       <c r="G11" t="n">
-        <v>212.9062036824865</v>
+        <v>413.054152058531</v>
       </c>
       <c r="H11" t="n">
-        <v>116.2985279322765</v>
+        <v>316.4464763083211</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>123.7872987546788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>8.621411752746383</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>157.7804284938809</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>213.2526667278472</v>
+        <v>13.1047183518026</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1657660713082</v>
+        <v>51.0178176952636</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>339.3524960344203</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23339,13 +23339,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>130.8642907615701</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.46014348031221</v>
+        <v>25.4601434803122</v>
       </c>
       <c r="S12" t="n">
         <v>149.3361295668697</v>
       </c>
       <c r="T12" t="n">
-        <v>195.3153942975433</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8622308122488</v>
+        <v>74.24327086300647</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>29.47698965037608</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>109.0961091489552</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9823413329452</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.2594635169644</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>22.0484717128632</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.702362769826038</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>131.941357975441</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>206.4387880832494</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>25.56170701299257</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>197.6039905941338</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>154.5350932446383</v>
       </c>
       <c r="E14" t="n">
-        <v>329.4273558973205</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>206.7280973656669</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>212.9062036824865</v>
+        <v>413.054152058531</v>
       </c>
       <c r="H14" t="n">
-        <v>116.2985279322765</v>
+        <v>316.4464763083211</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>123.7872987546788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>8.621411752746383</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>157.7804284938809</v>
+        <v>157.7804284938808</v>
       </c>
       <c r="T14" t="n">
-        <v>213.2526667278472</v>
+        <v>13.10471835180252</v>
       </c>
       <c r="U14" t="n">
         <v>251.1657660713082</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>127.6043100940902</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23579,22 +23579,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>154.2599765707317</v>
       </c>
       <c r="F15" t="n">
-        <v>48.52898842680236</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.1404178785758</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>100.6160379875227</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>47.97413555148588</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.46014348031221</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>149.3361295668697</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>195.3153942975433</v>
       </c>
       <c r="U15" t="n">
-        <v>25.71428243620429</v>
+        <v>25.71428243620417</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>51.54703478487494</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>5.534747401259693</v>
       </c>
     </row>
     <row r="16">
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>131.1445808618184</v>
+        <v>107.6419874049252</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.2594635169644</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>125.1179786690865</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.702362769826038</v>
+        <v>1.702362769826024</v>
       </c>
       <c r="R16" t="n">
         <v>131.941357975441</v>
@@ -23709,13 +23709,13 @@
         <v>223.6359542283599</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2640127369174</v>
+        <v>86.11606436087277</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>86.37504996054633</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,16 +23734,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>346.7630073352684</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>154.5350932446383</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>206.7280973656668</v>
       </c>
       <c r="G17" t="n">
         <v>413.054152058531</v>
@@ -23752,7 +23752,7 @@
         <v>316.4464763083211</v>
       </c>
       <c r="I17" t="n">
-        <v>123.7872987546788</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>8.621411752746383</v>
+        <v>8.621411752746354</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>105.2774143189395</v>
       </c>
       <c r="T17" t="n">
-        <v>213.2526667278472</v>
+        <v>13.10471835180252</v>
       </c>
       <c r="U17" t="n">
-        <v>51.01781769526363</v>
+        <v>251.1657660713082</v>
       </c>
       <c r="V17" t="n">
-        <v>127.6043100940904</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>149.0930203413685</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23810,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23825,7 +23825,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.1404178785758</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>100.6160379875227</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>25.4601434803122</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>149.3361295668697</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>25.71428243620429</v>
+        <v>195.2391525080117</v>
       </c>
       <c r="V18" t="n">
-        <v>221.7452459285659</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>51.54703478487494</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.244030022143278</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23913,7 +23913,7 @@
         <v>125.1179786690865</v>
       </c>
       <c r="J19" t="n">
-        <v>22.0484717128632</v>
+        <v>22.04847171286319</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.702362769826024</v>
       </c>
       <c r="R19" t="n">
         <v>131.941357975441</v>
@@ -23943,22 +23943,22 @@
         <v>206.4387880832494</v>
       </c>
       <c r="T19" t="n">
-        <v>23.48800585231533</v>
+        <v>23.48800585231521</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2640127369174</v>
+        <v>86.11606436087277</v>
       </c>
       <c r="V19" t="n">
-        <v>51.98969494778345</v>
+        <v>75.847330394208</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>86.37504996054633</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>18.43670497605024</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>182.5858932874361</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,16 +23977,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>181.7824216962173</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>206.7280973656668</v>
       </c>
       <c r="G20" t="n">
-        <v>413.054152058531</v>
+        <v>212.9062036824864</v>
       </c>
       <c r="H20" t="n">
-        <v>116.2985279322766</v>
+        <v>148.7775751314474</v>
       </c>
       <c r="I20" t="n">
         <v>123.7872987546788</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>8.621411752746383</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>157.7804284938809</v>
       </c>
       <c r="T20" t="n">
-        <v>36.9623537982273</v>
+        <v>213.2526667278472</v>
       </c>
       <c r="U20" t="n">
         <v>251.1657660713082</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>186.089990280009</v>
       </c>
     </row>
     <row r="21">
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>97.1880996307801</v>
       </c>
       <c r="G21" t="n">
-        <v>136.1404178785758</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>100.6160379875227</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>47.97413555148589</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.46014348031221</v>
       </c>
       <c r="S21" t="n">
-        <v>149.3361295668697</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>195.3153942975433</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.8622308122488</v>
@@ -24110,13 +24110,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>51.54703478487511</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>21.32805102799253</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.534747401259864</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>105.9688808338594</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>206.4387880832494</v>
+        <v>6.290839707204753</v>
       </c>
       <c r="T22" t="n">
-        <v>223.6359542283599</v>
+        <v>23.48800585231527</v>
       </c>
       <c r="U22" t="n">
         <v>286.2640127369174</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>25.56170701299254</v>
       </c>
       <c r="Y22" t="n">
-        <v>217.6224529849551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>182.585893287436</v>
+        <v>182.5858932874361</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>181.7824216962172</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24223,10 +24223,10 @@
         <v>413.054152058531</v>
       </c>
       <c r="H23" t="n">
-        <v>263.9434621333799</v>
+        <v>116.2985279322766</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>123.7872987546788</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>8.621411752746383</v>
       </c>
       <c r="S23" t="n">
-        <v>157.7804284938809</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>213.2526667278472</v>
+        <v>13.10471835180269</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1657660713082</v>
+        <v>232.6558816355692</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>186.089990280009</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24341,19 +24341,19 @@
         <v>195.3153942975433</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8622308122488</v>
+        <v>25.71428243620434</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>32.65263877338077</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>51.54703478487511</v>
       </c>
       <c r="X24" t="n">
-        <v>5.625036827432922</v>
+        <v>29.48267227385756</v>
       </c>
       <c r="Y24" t="n">
-        <v>115.783234298417</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,7 +24381,7 @@
         <v>166.9823413329452</v>
       </c>
       <c r="H25" t="n">
-        <v>76.0093812853687</v>
+        <v>153.2594635169644</v>
       </c>
       <c r="I25" t="n">
         <v>125.1179786690865</v>
@@ -24411,28 +24411,28 @@
         <v>1.702362769826038</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>131.941357975441</v>
       </c>
       <c r="S25" t="n">
         <v>206.4387880832494</v>
       </c>
       <c r="T25" t="n">
-        <v>223.6359542283599</v>
+        <v>23.48800585231538</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2640127369174</v>
+        <v>86.11606436087294</v>
       </c>
       <c r="V25" t="n">
-        <v>51.98969494778345</v>
+        <v>75.84733039420809</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>25.5617070129926</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>18.43670497605029</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>182.585893287436</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,16 +24451,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>181.7824216962172</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>206.7280973656669</v>
       </c>
       <c r="G26" t="n">
-        <v>413.054152058531</v>
+        <v>212.9062036824865</v>
       </c>
       <c r="H26" t="n">
-        <v>316.4464763083211</v>
+        <v>116.2985279322766</v>
       </c>
       <c r="I26" t="n">
         <v>123.7872987546788</v>
@@ -24493,16 +24493,16 @@
         <v>8.621411752746383</v>
       </c>
       <c r="S26" t="n">
-        <v>157.7804284938809</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>36.9623537982273</v>
+        <v>213.2526667278472</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1657660713082</v>
+        <v>232.6558816355692</v>
       </c>
       <c r="V26" t="n">
-        <v>127.6043100940904</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24539,7 +24539,7 @@
         <v>136.1404178785758</v>
       </c>
       <c r="H27" t="n">
-        <v>100.6160379875227</v>
+        <v>90.85890870777011</v>
       </c>
       <c r="I27" t="n">
         <v>47.97413555148589</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>25.46014348031221</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>149.3361295668697</v>
       </c>
       <c r="T27" t="n">
-        <v>193.8213544151052</v>
+        <v>195.3153942975433</v>
       </c>
       <c r="U27" t="n">
-        <v>25.71428243620429</v>
+        <v>225.8622308122488</v>
       </c>
       <c r="V27" t="n">
-        <v>32.65263877338072</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>51.54703478487505</v>
+        <v>51.54703478487511</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>5.625036827432979</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>5.534747401259864</v>
       </c>
     </row>
     <row r="28">
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>97.43023991741647</v>
       </c>
       <c r="G28" t="n">
         <v>166.9823413329452</v>
@@ -24645,22 +24645,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.702362769826038</v>
       </c>
       <c r="R28" t="n">
-        <v>85.65291263975215</v>
+        <v>131.941357975441</v>
       </c>
       <c r="S28" t="n">
-        <v>206.4387880832494</v>
+        <v>6.290839707204867</v>
       </c>
       <c r="T28" t="n">
         <v>223.6359542283599</v>
       </c>
       <c r="U28" t="n">
-        <v>86.11606436087288</v>
+        <v>286.2640127369174</v>
       </c>
       <c r="V28" t="n">
-        <v>51.98969494778345</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>18.43670497605029</v>
       </c>
     </row>
     <row r="29">
@@ -24694,10 +24694,10 @@
         <v>206.7280973656669</v>
       </c>
       <c r="G29" t="n">
-        <v>236.763839128911</v>
+        <v>212.9062036824865</v>
       </c>
       <c r="H29" t="n">
-        <v>116.2985279322765</v>
+        <v>316.4464763083211</v>
       </c>
       <c r="I29" t="n">
         <v>123.7872987546788</v>
@@ -24730,10 +24730,10 @@
         <v>8.621411752746383</v>
       </c>
       <c r="S29" t="n">
-        <v>157.7804284938809</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>213.2526667278472</v>
+        <v>13.10471835180263</v>
       </c>
       <c r="U29" t="n">
         <v>251.1657660713082</v>
@@ -24742,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>149.0930203413685</v>
+        <v>330.7310842816739</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.46014348031221</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>149.3361295668697</v>
       </c>
       <c r="T30" t="n">
-        <v>19.02508136792338</v>
+        <v>195.3153942975433</v>
       </c>
       <c r="U30" t="n">
         <v>225.8622308122488</v>
       </c>
       <c r="V30" t="n">
-        <v>32.65263877338072</v>
+        <v>48.35565297394021</v>
       </c>
       <c r="W30" t="n">
-        <v>51.54703478487505</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>5.625036827432922</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>5.534747401259807</v>
       </c>
     </row>
     <row r="31">
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>70.37857565062619</v>
+        <v>102.7744558385783</v>
       </c>
       <c r="G31" t="n">
         <v>166.9823413329452</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.2594635169644</v>
       </c>
       <c r="I31" t="n">
         <v>125.1179786690865</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>131.941357975441</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>6.29083970720481</v>
+        <v>206.4387880832494</v>
       </c>
       <c r="T31" t="n">
         <v>23.48800585231533</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2640127369174</v>
+        <v>86.11606436087288</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>86.37504996054645</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,16 +24922,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>154.5350932446383</v>
       </c>
       <c r="E32" t="n">
         <v>181.7824216962172</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>206.7280973656668</v>
       </c>
       <c r="G32" t="n">
-        <v>413.054152058531</v>
+        <v>245.3852508816574</v>
       </c>
       <c r="H32" t="n">
         <v>316.4464763083211</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>157.7804284938809</v>
       </c>
       <c r="T32" t="n">
-        <v>13.10471835180263</v>
+        <v>213.2526667278472</v>
       </c>
       <c r="U32" t="n">
-        <v>51.01781769526363</v>
+        <v>251.1657660713082</v>
       </c>
       <c r="V32" t="n">
-        <v>317.8637857871422</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25007,7 +25007,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>53.36154250530362</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.46014348031221</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>149.3361295668697</v>
@@ -25052,16 +25052,16 @@
         <v>195.3153942975433</v>
       </c>
       <c r="U33" t="n">
-        <v>25.71428243620429</v>
+        <v>25.71428243620423</v>
       </c>
       <c r="V33" t="n">
-        <v>32.65263877338072</v>
+        <v>166.5530607416572</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>5.625036827432865</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>109.0961091489551</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.9823413329452</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.2594635169644</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>125.1179786690865</v>
       </c>
       <c r="J34" t="n">
         <v>22.0484717128632</v>
@@ -25128,16 +25128,16 @@
         <v>206.4387880832494</v>
       </c>
       <c r="T34" t="n">
-        <v>223.6359542283599</v>
+        <v>47.34564129873988</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2640127369174</v>
+        <v>86.11606436087283</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>51.98969494778339</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>86.37504996054639</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>206.4435287338606</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>165.124943394963</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>154.5350932446384</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>206.7280973656669</v>
       </c>
       <c r="G35" t="n">
-        <v>413.054152058531</v>
+        <v>212.9062036824865</v>
       </c>
       <c r="H35" t="n">
         <v>316.4464763083211</v>
       </c>
       <c r="I35" t="n">
-        <v>123.7872987546788</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>8.621411752746383</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>157.7804284938809</v>
@@ -25210,10 +25210,10 @@
         <v>213.2526667278472</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1657660713082</v>
+        <v>207.2841636491133</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>127.6043100940904</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>186.089990280009</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25235,22 +25235,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>82.8901552100841</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.1404178785758</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>100.6160379875227</v>
       </c>
       <c r="I36" t="n">
         <v>47.97413555148589</v>
@@ -25280,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.46014348031221</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>149.3361295668697</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>195.3153942975433</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8622308122488</v>
+        <v>25.71428243620429</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>32.65263877338072</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>245.3683891999801</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25314,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.9823413329452</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.2594635169644</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>125.1179786690865</v>
       </c>
       <c r="J37" t="n">
         <v>22.0484717128632</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>131.941357975441</v>
+        <v>49.06047010910288</v>
       </c>
       <c r="S37" t="n">
-        <v>206.4387880832494</v>
+        <v>6.29083970720481</v>
       </c>
       <c r="T37" t="n">
-        <v>223.6359542283599</v>
+        <v>23.48800585231533</v>
       </c>
       <c r="U37" t="n">
         <v>286.2640127369174</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>63.2844647187334</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>165.124943394963</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>178.3927286910631</v>
       </c>
       <c r="E38" t="n">
         <v>181.7824216962172</v>
@@ -25405,7 +25405,7 @@
         <v>206.7280973656669</v>
       </c>
       <c r="G38" t="n">
-        <v>413.054152058531</v>
+        <v>212.9062036824865</v>
       </c>
       <c r="H38" t="n">
         <v>316.4464763083211</v>
@@ -25450,7 +25450,7 @@
         <v>251.1657660713082</v>
       </c>
       <c r="V38" t="n">
-        <v>151.461945540515</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>136.1404178785758</v>
@@ -25490,7 +25490,7 @@
         <v>100.6160379875227</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>47.97413555148589</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>25.46014348031221</v>
       </c>
       <c r="S39" t="n">
-        <v>132.8709471197805</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>195.3153942975433</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8622308122488</v>
+        <v>48.62356073478838</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>51.54703478487505</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>143.9514919202895</v>
+        <v>72.80327379076009</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.2594635169644</v>
       </c>
       <c r="I40" t="n">
         <v>125.1179786690865</v>
@@ -25593,28 +25593,28 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.702362769826038</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>131.941357975441</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>6.29083970720481</v>
+        <v>206.4387880832494</v>
       </c>
       <c r="T40" t="n">
-        <v>23.48800585231533</v>
+        <v>223.6359542283599</v>
       </c>
       <c r="U40" t="n">
         <v>286.2640127369174</v>
       </c>
       <c r="V40" t="n">
-        <v>51.98969494778345</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>86.37504996054645</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>25.5617070129926</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,19 +25630,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>165.124943394963</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>154.5350932446384</v>
       </c>
       <c r="E41" t="n">
-        <v>181.7824216962173</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>206.7280973656669</v>
       </c>
       <c r="G41" t="n">
-        <v>212.9062036824865</v>
+        <v>413.054152058531</v>
       </c>
       <c r="H41" t="n">
         <v>316.4464763083211</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>157.7804284938809</v>
       </c>
       <c r="T41" t="n">
-        <v>203.3641940448545</v>
+        <v>213.2526667278472</v>
       </c>
       <c r="U41" t="n">
         <v>251.1657660713082</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>202.0621995015954</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25712,16 +25712,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.1404178785758</v>
+        <v>9.713566610290272</v>
       </c>
       <c r="H42" t="n">
         <v>100.6160379875227</v>
@@ -25754,22 +25754,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>25.46014348031221</v>
       </c>
       <c r="S42" t="n">
         <v>149.3361295668697</v>
       </c>
       <c r="T42" t="n">
-        <v>44.48522484823553</v>
+        <v>195.3153942975433</v>
       </c>
       <c r="U42" t="n">
-        <v>25.71428243620434</v>
+        <v>225.8622308122488</v>
       </c>
       <c r="V42" t="n">
-        <v>32.65263877338077</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>51.54703478487511</v>
+        <v>51.54703478487508</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>115.5646977398804</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.9823413329452</v>
       </c>
       <c r="H43" t="n">
         <v>153.2594635169644</v>
@@ -25809,7 +25809,7 @@
         <v>125.1179786690865</v>
       </c>
       <c r="J43" t="n">
-        <v>12.74050011618847</v>
+        <v>22.0484717128632</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>131.941357975441</v>
       </c>
       <c r="S43" t="n">
-        <v>206.4387880832494</v>
+        <v>6.290839707204839</v>
       </c>
       <c r="T43" t="n">
-        <v>23.48800585231538</v>
+        <v>23.48800585231535</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2640127369174</v>
+        <v>86.11606436087291</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>86.37504996054651</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>25.56170701299266</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.054152058531</v>
+        <v>212.9062036824865</v>
       </c>
       <c r="H44" t="n">
         <v>316.4464763083211</v>
       </c>
       <c r="I44" t="n">
-        <v>123.7872987546788</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>157.7804284938809</v>
       </c>
       <c r="T44" t="n">
-        <v>13.10471835180266</v>
+        <v>213.2526667278472</v>
       </c>
       <c r="U44" t="n">
-        <v>241.2772933883154</v>
+        <v>51.01781769526366</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>127.6043100940904</v>
       </c>
       <c r="W44" t="n">
-        <v>149.0930203413685</v>
+        <v>305.3593662952182</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>186.0899902800091</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,19 +25946,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>104.3536804373242</v>
       </c>
       <c r="H45" t="n">
         <v>100.6160379875227</v>
@@ -25994,19 +25994,19 @@
         <v>25.46014348031221</v>
       </c>
       <c r="S45" t="n">
-        <v>149.3361295668697</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>195.3153942975433</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.8622308122488</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>32.65263877338074</v>
       </c>
       <c r="W45" t="n">
-        <v>233.9691003834811</v>
+        <v>51.54703478487508</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>119.2560129931129</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>82.39909069678107</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.9823413329452</v>
       </c>
       <c r="H46" t="n">
         <v>153.2594635169644</v>
@@ -26073,19 +26073,19 @@
         <v>131.941357975441</v>
       </c>
       <c r="S46" t="n">
-        <v>206.4387880832494</v>
+        <v>6.290839707204839</v>
       </c>
       <c r="T46" t="n">
-        <v>23.48800585231535</v>
+        <v>223.6359542283599</v>
       </c>
       <c r="U46" t="n">
-        <v>86.11606436087291</v>
+        <v>286.2640127369174</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>86.37504996054648</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>401142.7183080532</v>
+        <v>401142.7183080533</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>401142.7183080532</v>
+        <v>401142.7183080534</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>401142.7183080533</v>
+        <v>401142.7183080534</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>401142.7183080532</v>
+        <v>401142.7183080533</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>401142.7183080533</v>
+        <v>401142.7183080534</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>401142.7183080533</v>
+        <v>401142.7183080532</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>573493.4371019269</v>
       </c>
       <c r="C2" t="n">
-        <v>573493.437101927</v>
+        <v>573493.4371019268</v>
       </c>
       <c r="D2" t="n">
         <v>573493.4371019268</v>
       </c>
       <c r="E2" t="n">
-        <v>258140.9349765902</v>
+        <v>258140.9349765903</v>
       </c>
       <c r="F2" t="n">
-        <v>258140.9349765902</v>
+        <v>258140.9349765903</v>
       </c>
       <c r="G2" t="n">
-        <v>258140.9349765902</v>
+        <v>258140.9349765903</v>
       </c>
       <c r="H2" t="n">
         <v>258140.9349765902</v>
@@ -26340,13 +26340,13 @@
         <v>258140.9349765903</v>
       </c>
       <c r="K2" t="n">
-        <v>258140.9349765903</v>
+        <v>258140.9349765902</v>
       </c>
       <c r="L2" t="n">
         <v>258140.9349765903</v>
       </c>
       <c r="M2" t="n">
-        <v>258140.9349765902</v>
+        <v>258140.9349765903</v>
       </c>
       <c r="N2" t="n">
         <v>258140.9349765902</v>
@@ -26355,7 +26355,7 @@
         <v>258140.9349765902</v>
       </c>
       <c r="P2" t="n">
-        <v>258140.9349765903</v>
+        <v>258140.9349765902</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>509131.6991512456</v>
+        <v>509131.6991512457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49877.6693271038</v>
+        <v>49877.66932710383</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,25 +26429,25 @@
         <v>14104.87443985663</v>
       </c>
       <c r="F4" t="n">
-        <v>14104.87443985664</v>
+        <v>14104.87443985665</v>
       </c>
       <c r="G4" t="n">
-        <v>14104.87443985664</v>
+        <v>14104.87443985665</v>
       </c>
       <c r="H4" t="n">
+        <v>14104.87443985665</v>
+      </c>
+      <c r="I4" t="n">
         <v>14104.87443985663</v>
       </c>
-      <c r="I4" t="n">
-        <v>14104.87443985664</v>
-      </c>
       <c r="J4" t="n">
-        <v>14104.87443985664</v>
+        <v>14104.87443985663</v>
       </c>
       <c r="K4" t="n">
-        <v>14104.87443985664</v>
+        <v>14104.87443985663</v>
       </c>
       <c r="L4" t="n">
-        <v>14104.87443985664</v>
+        <v>14104.87443985665</v>
       </c>
       <c r="M4" t="n">
         <v>14104.87443985664</v>
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24362.51204606304</v>
+        <v>24362.51204606305</v>
       </c>
       <c r="F5" t="n">
-        <v>24362.51204606304</v>
+        <v>24362.51204606305</v>
       </c>
       <c r="G5" t="n">
-        <v>24362.51204606304</v>
+        <v>24362.51204606305</v>
       </c>
       <c r="H5" t="n">
-        <v>24362.51204606304</v>
+        <v>24362.51204606305</v>
       </c>
       <c r="I5" t="n">
         <v>24362.51204606304</v>
@@ -26499,7 +26499,7 @@
         <v>24362.51204606304</v>
       </c>
       <c r="L5" t="n">
-        <v>24362.51204606304</v>
+        <v>24362.51204606305</v>
       </c>
       <c r="M5" t="n">
         <v>24362.51204606304</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92841.21682953401</v>
+        <v>92797.08105085288</v>
       </c>
       <c r="C6" t="n">
-        <v>92841.21682953413</v>
+        <v>92797.08105085276</v>
       </c>
       <c r="D6" t="n">
-        <v>92841.21682953389</v>
+        <v>92797.08105085276</v>
       </c>
       <c r="E6" t="n">
-        <v>-289458.1506605751</v>
+        <v>-300764.8758008754</v>
       </c>
       <c r="F6" t="n">
-        <v>219673.5484906706</v>
+        <v>208366.8233503704</v>
       </c>
       <c r="G6" t="n">
-        <v>219673.5484906706</v>
+        <v>208366.8233503703</v>
       </c>
       <c r="H6" t="n">
-        <v>219673.5484906706</v>
+        <v>208366.8233503703</v>
       </c>
       <c r="I6" t="n">
-        <v>219673.5484906706</v>
+        <v>208366.8233503702</v>
       </c>
       <c r="J6" t="n">
-        <v>219673.5484906706</v>
+        <v>208366.8233503703</v>
       </c>
       <c r="K6" t="n">
-        <v>219673.5484906706</v>
+        <v>208366.8233503703</v>
       </c>
       <c r="L6" t="n">
-        <v>219673.5484906706</v>
+        <v>208366.8233503703</v>
       </c>
       <c r="M6" t="n">
-        <v>169795.8791635667</v>
+        <v>158489.1540232665</v>
       </c>
       <c r="N6" t="n">
-        <v>219673.5484906705</v>
+        <v>208366.8233503702</v>
       </c>
       <c r="O6" t="n">
-        <v>219673.5484906706</v>
+        <v>208366.8233503702</v>
       </c>
       <c r="P6" t="n">
-        <v>219673.5484906706</v>
+        <v>208366.8233503702</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>559.3356323302539</v>
+        <v>559.335632330254</v>
       </c>
       <c r="F3" t="n">
-        <v>559.3356323302539</v>
+        <v>559.335632330254</v>
       </c>
       <c r="G3" t="n">
-        <v>559.3356323302539</v>
+        <v>559.335632330254</v>
       </c>
       <c r="H3" t="n">
         <v>559.3356323302539</v>
@@ -26798,22 +26798,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>200.1479483760446</v>
+      </c>
+      <c r="F4" t="n">
+        <v>200.1479483760447</v>
+      </c>
+      <c r="G4" t="n">
+        <v>200.1479483760447</v>
+      </c>
+      <c r="H4" t="n">
+        <v>200.1479483760446</v>
+      </c>
+      <c r="I4" t="n">
         <v>200.1479483760445</v>
       </c>
-      <c r="F4" t="n">
-        <v>200.1479483760446</v>
-      </c>
-      <c r="G4" t="n">
-        <v>200.1479483760446</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>200.1479483760445</v>
-      </c>
-      <c r="I4" t="n">
-        <v>200.1479483760446</v>
-      </c>
-      <c r="J4" t="n">
-        <v>200.1479483760446</v>
       </c>
       <c r="K4" t="n">
         <v>200.1479483760446</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>559.3356323302539</v>
+        <v>559.335632330254</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>200.1479483760445</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>200.1479483760445</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>200.1479483760445</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.248585456604034</v>
+        <v>2.248585456604035</v>
       </c>
       <c r="H11" t="n">
-        <v>23.02832580744607</v>
+        <v>23.02832580744608</v>
       </c>
       <c r="I11" t="n">
-        <v>86.68859081572711</v>
+        <v>86.68859081572712</v>
       </c>
       <c r="J11" t="n">
         <v>190.8458798974468</v>
@@ -31767,19 +31767,19 @@
         <v>286.0285022754957</v>
       </c>
       <c r="L11" t="n">
-        <v>354.8436494430414</v>
+        <v>354.8436494430415</v>
       </c>
       <c r="M11" t="n">
-        <v>394.8319310569234</v>
+        <v>394.8319310569235</v>
       </c>
       <c r="N11" t="n">
         <v>401.2207244854997</v>
       </c>
       <c r="O11" t="n">
-        <v>378.8613528513932</v>
+        <v>378.8613528513933</v>
       </c>
       <c r="P11" t="n">
-        <v>323.3493993914811</v>
+        <v>323.3493993914812</v>
       </c>
       <c r="Q11" t="n">
         <v>242.8219327268491</v>
@@ -31788,10 +31788,10 @@
         <v>141.2477061884033</v>
       </c>
       <c r="S11" t="n">
-        <v>51.23964109236448</v>
+        <v>51.23964109236449</v>
       </c>
       <c r="T11" t="n">
-        <v>9.843182836284164</v>
+        <v>9.843182836284166</v>
       </c>
       <c r="U11" t="n">
         <v>0.1798868365283227</v>
@@ -31837,43 +31837,43 @@
         <v>11.61940624897377</v>
       </c>
       <c r="I12" t="n">
-        <v>41.42249729992919</v>
+        <v>41.4224972999292</v>
       </c>
       <c r="J12" t="n">
-        <v>113.6664986417547</v>
+        <v>113.6664986417548</v>
       </c>
       <c r="K12" t="n">
         <v>194.2741507122921</v>
       </c>
       <c r="L12" t="n">
-        <v>261.2255705519738</v>
+        <v>261.2255705519739</v>
       </c>
       <c r="M12" t="n">
-        <v>304.8379196199883</v>
+        <v>304.8379196199884</v>
       </c>
       <c r="N12" t="n">
-        <v>312.9060722787899</v>
+        <v>312.90607227879</v>
       </c>
       <c r="O12" t="n">
-        <v>286.24792497188</v>
+        <v>286.2479249718801</v>
       </c>
       <c r="P12" t="n">
-        <v>229.7391958527792</v>
+        <v>229.7391958527793</v>
       </c>
       <c r="Q12" t="n">
-        <v>153.5745683333935</v>
+        <v>153.5745683333936</v>
       </c>
       <c r="R12" t="n">
-        <v>74.69769067233092</v>
+        <v>74.69769067233094</v>
       </c>
       <c r="S12" t="n">
-        <v>22.34704153696815</v>
+        <v>22.34704153696816</v>
       </c>
       <c r="T12" t="n">
-        <v>4.849334397278332</v>
+        <v>4.849334397278333</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07915126872597936</v>
+        <v>0.07915126872597938</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,43 +31913,43 @@
         <v>1.008638025513573</v>
       </c>
       <c r="H13" t="n">
-        <v>8.967708990475224</v>
+        <v>8.967708990475225</v>
       </c>
       <c r="I13" t="n">
-        <v>30.33249625817181</v>
+        <v>30.33249625817182</v>
       </c>
       <c r="J13" t="n">
-        <v>71.31070840380957</v>
+        <v>71.31070840380958</v>
       </c>
       <c r="K13" t="n">
         <v>117.185399691486</v>
       </c>
       <c r="L13" t="n">
-        <v>149.9569660840815</v>
+        <v>149.9569660840816</v>
       </c>
       <c r="M13" t="n">
         <v>158.1085952175503</v>
       </c>
       <c r="N13" t="n">
-        <v>154.3491262133634</v>
+        <v>154.3491262133635</v>
       </c>
       <c r="O13" t="n">
-        <v>142.5664001880457</v>
+        <v>142.5664001880458</v>
       </c>
       <c r="P13" t="n">
         <v>121.9901844675688</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.45968048186835</v>
+        <v>84.45968048186836</v>
       </c>
       <c r="R13" t="n">
-        <v>45.35203340172844</v>
+        <v>45.35203340172845</v>
       </c>
       <c r="S13" t="n">
         <v>17.57780995372289</v>
       </c>
       <c r="T13" t="n">
-        <v>4.309635199921627</v>
+        <v>4.309635199921628</v>
       </c>
       <c r="U13" t="n">
         <v>0.05501661957346766</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.248585456604034</v>
+        <v>2.248585456604035</v>
       </c>
       <c r="H14" t="n">
-        <v>23.02832580744607</v>
+        <v>23.02832580744608</v>
       </c>
       <c r="I14" t="n">
-        <v>86.68859081572711</v>
+        <v>86.68859081572712</v>
       </c>
       <c r="J14" t="n">
         <v>190.8458798974468</v>
@@ -32004,19 +32004,19 @@
         <v>286.0285022754957</v>
       </c>
       <c r="L14" t="n">
-        <v>354.8436494430414</v>
+        <v>354.8436494430415</v>
       </c>
       <c r="M14" t="n">
-        <v>394.8319310569234</v>
+        <v>394.8319310569235</v>
       </c>
       <c r="N14" t="n">
         <v>401.2207244854997</v>
       </c>
       <c r="O14" t="n">
-        <v>378.8613528513932</v>
+        <v>378.8613528513933</v>
       </c>
       <c r="P14" t="n">
-        <v>323.3493993914811</v>
+        <v>323.3493993914812</v>
       </c>
       <c r="Q14" t="n">
         <v>242.8219327268491</v>
@@ -32025,10 +32025,10 @@
         <v>141.2477061884033</v>
       </c>
       <c r="S14" t="n">
-        <v>51.23964109236448</v>
+        <v>51.23964109236449</v>
       </c>
       <c r="T14" t="n">
-        <v>9.843182836284164</v>
+        <v>9.843182836284166</v>
       </c>
       <c r="U14" t="n">
         <v>0.1798868365283227</v>
@@ -32074,43 +32074,43 @@
         <v>11.61940624897377</v>
       </c>
       <c r="I15" t="n">
-        <v>41.42249729992919</v>
+        <v>41.4224972999292</v>
       </c>
       <c r="J15" t="n">
-        <v>113.6664986417547</v>
+        <v>113.6664986417548</v>
       </c>
       <c r="K15" t="n">
         <v>194.2741507122921</v>
       </c>
       <c r="L15" t="n">
-        <v>261.2255705519738</v>
+        <v>261.2255705519739</v>
       </c>
       <c r="M15" t="n">
-        <v>304.8379196199883</v>
+        <v>304.8379196199884</v>
       </c>
       <c r="N15" t="n">
-        <v>312.9060722787899</v>
+        <v>312.90607227879</v>
       </c>
       <c r="O15" t="n">
-        <v>286.24792497188</v>
+        <v>286.2479249718801</v>
       </c>
       <c r="P15" t="n">
-        <v>229.7391958527792</v>
+        <v>229.7391958527793</v>
       </c>
       <c r="Q15" t="n">
-        <v>153.5745683333935</v>
+        <v>153.5745683333936</v>
       </c>
       <c r="R15" t="n">
-        <v>74.69769067233092</v>
+        <v>74.69769067233094</v>
       </c>
       <c r="S15" t="n">
-        <v>22.34704153696815</v>
+        <v>22.34704153696816</v>
       </c>
       <c r="T15" t="n">
-        <v>4.849334397278332</v>
+        <v>4.849334397278333</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07915126872597936</v>
+        <v>0.07915126872597938</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,43 +32150,43 @@
         <v>1.008638025513573</v>
       </c>
       <c r="H16" t="n">
-        <v>8.967708990475224</v>
+        <v>8.967708990475225</v>
       </c>
       <c r="I16" t="n">
-        <v>30.33249625817181</v>
+        <v>30.33249625817182</v>
       </c>
       <c r="J16" t="n">
-        <v>71.31070840380957</v>
+        <v>71.31070840380958</v>
       </c>
       <c r="K16" t="n">
         <v>117.185399691486</v>
       </c>
       <c r="L16" t="n">
-        <v>149.9569660840815</v>
+        <v>149.9569660840816</v>
       </c>
       <c r="M16" t="n">
         <v>158.1085952175503</v>
       </c>
       <c r="N16" t="n">
-        <v>154.3491262133634</v>
+        <v>154.3491262133635</v>
       </c>
       <c r="O16" t="n">
-        <v>142.5664001880457</v>
+        <v>142.5664001880458</v>
       </c>
       <c r="P16" t="n">
         <v>121.9901844675688</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.45968048186835</v>
+        <v>84.45968048186836</v>
       </c>
       <c r="R16" t="n">
-        <v>45.35203340172844</v>
+        <v>45.35203340172845</v>
       </c>
       <c r="S16" t="n">
         <v>17.57780995372289</v>
       </c>
       <c r="T16" t="n">
-        <v>4.309635199921627</v>
+        <v>4.309635199921628</v>
       </c>
       <c r="U16" t="n">
         <v>0.05501661957346766</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.248585456604034</v>
+        <v>2.248585456604035</v>
       </c>
       <c r="H17" t="n">
-        <v>23.02832580744607</v>
+        <v>23.02832580744608</v>
       </c>
       <c r="I17" t="n">
-        <v>86.68859081572711</v>
+        <v>86.68859081572712</v>
       </c>
       <c r="J17" t="n">
         <v>190.8458798974468</v>
@@ -32241,19 +32241,19 @@
         <v>286.0285022754957</v>
       </c>
       <c r="L17" t="n">
-        <v>354.8436494430414</v>
+        <v>354.8436494430415</v>
       </c>
       <c r="M17" t="n">
-        <v>394.8319310569234</v>
+        <v>394.8319310569235</v>
       </c>
       <c r="N17" t="n">
         <v>401.2207244854997</v>
       </c>
       <c r="O17" t="n">
-        <v>378.8613528513932</v>
+        <v>378.8613528513933</v>
       </c>
       <c r="P17" t="n">
-        <v>323.3493993914811</v>
+        <v>323.3493993914812</v>
       </c>
       <c r="Q17" t="n">
         <v>242.8219327268491</v>
@@ -32262,10 +32262,10 @@
         <v>141.2477061884033</v>
       </c>
       <c r="S17" t="n">
-        <v>51.23964109236448</v>
+        <v>51.23964109236449</v>
       </c>
       <c r="T17" t="n">
-        <v>9.843182836284164</v>
+        <v>9.843182836284166</v>
       </c>
       <c r="U17" t="n">
         <v>0.1798868365283227</v>
@@ -32311,43 +32311,43 @@
         <v>11.61940624897377</v>
       </c>
       <c r="I18" t="n">
-        <v>41.42249729992919</v>
+        <v>41.4224972999292</v>
       </c>
       <c r="J18" t="n">
-        <v>113.6664986417547</v>
+        <v>113.6664986417548</v>
       </c>
       <c r="K18" t="n">
         <v>194.2741507122921</v>
       </c>
       <c r="L18" t="n">
-        <v>261.2255705519738</v>
+        <v>261.2255705519739</v>
       </c>
       <c r="M18" t="n">
-        <v>304.8379196199883</v>
+        <v>304.8379196199884</v>
       </c>
       <c r="N18" t="n">
-        <v>312.9060722787899</v>
+        <v>312.90607227879</v>
       </c>
       <c r="O18" t="n">
-        <v>286.24792497188</v>
+        <v>286.2479249718801</v>
       </c>
       <c r="P18" t="n">
-        <v>229.7391958527792</v>
+        <v>229.7391958527793</v>
       </c>
       <c r="Q18" t="n">
-        <v>153.5745683333935</v>
+        <v>153.5745683333936</v>
       </c>
       <c r="R18" t="n">
-        <v>74.69769067233092</v>
+        <v>74.69769067233094</v>
       </c>
       <c r="S18" t="n">
-        <v>22.34704153696815</v>
+        <v>22.34704153696816</v>
       </c>
       <c r="T18" t="n">
-        <v>4.849334397278332</v>
+        <v>4.849334397278333</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07915126872597936</v>
+        <v>0.07915126872597938</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,43 +32387,43 @@
         <v>1.008638025513573</v>
       </c>
       <c r="H19" t="n">
-        <v>8.967708990475224</v>
+        <v>8.967708990475225</v>
       </c>
       <c r="I19" t="n">
-        <v>30.33249625817181</v>
+        <v>30.33249625817182</v>
       </c>
       <c r="J19" t="n">
-        <v>71.31070840380957</v>
+        <v>71.31070840380958</v>
       </c>
       <c r="K19" t="n">
         <v>117.185399691486</v>
       </c>
       <c r="L19" t="n">
-        <v>149.9569660840815</v>
+        <v>149.9569660840816</v>
       </c>
       <c r="M19" t="n">
         <v>158.1085952175503</v>
       </c>
       <c r="N19" t="n">
-        <v>154.3491262133634</v>
+        <v>154.3491262133635</v>
       </c>
       <c r="O19" t="n">
-        <v>142.5664001880457</v>
+        <v>142.5664001880458</v>
       </c>
       <c r="P19" t="n">
         <v>121.9901844675688</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.45968048186835</v>
+        <v>84.45968048186836</v>
       </c>
       <c r="R19" t="n">
-        <v>45.35203340172844</v>
+        <v>45.35203340172845</v>
       </c>
       <c r="S19" t="n">
         <v>17.57780995372289</v>
       </c>
       <c r="T19" t="n">
-        <v>4.309635199921627</v>
+        <v>4.309635199921628</v>
       </c>
       <c r="U19" t="n">
         <v>0.05501661957346766</v>
@@ -34368,7 +34368,7 @@
         <v>86.68859081572711</v>
       </c>
       <c r="J44" t="n">
-        <v>190.8458798974468</v>
+        <v>190.8458798974463</v>
       </c>
       <c r="K44" t="n">
         <v>286.0285022754957</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>9.799975370760535</v>
+        <v>9.799975370760563</v>
       </c>
       <c r="K11" t="n">
-        <v>65.93865123051512</v>
+        <v>65.93865123051518</v>
       </c>
       <c r="L11" t="n">
-        <v>119.0772344730542</v>
+        <v>119.0772344730543</v>
       </c>
       <c r="M11" t="n">
-        <v>164.4856978296507</v>
+        <v>164.4856978296508</v>
       </c>
       <c r="N11" t="n">
-        <v>171.8076608889087</v>
+        <v>171.8076608889088</v>
       </c>
       <c r="O11" t="n">
-        <v>148.7631414297065</v>
+        <v>148.7631414297066</v>
       </c>
       <c r="P11" t="n">
-        <v>92.1164036362116</v>
+        <v>92.11640363621166</v>
       </c>
       <c r="Q11" t="n">
-        <v>20.51624285239959</v>
+        <v>20.51624285239964</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>16.1235960944906</v>
       </c>
       <c r="K12" t="n">
-        <v>56.43271173793309</v>
+        <v>56.43271173793312</v>
       </c>
       <c r="L12" t="n">
-        <v>122.6711907720996</v>
+        <v>122.6711907720997</v>
       </c>
       <c r="M12" t="n">
-        <v>162.70388569797</v>
+        <v>162.7038856979701</v>
       </c>
       <c r="N12" t="n">
-        <v>181.5643601954566</v>
+        <v>181.5643601954567</v>
       </c>
       <c r="O12" t="n">
         <v>143.6516805274356</v>
       </c>
       <c r="P12" t="n">
-        <v>95.76478843844899</v>
+        <v>95.76478843844905</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.71639034186258</v>
+        <v>13.59279424737204</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,19 +35570,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>51.63271749274057</v>
+        <v>94.91590786560312</v>
       </c>
       <c r="L13" t="n">
-        <v>177.5469913443977</v>
+        <v>134.2638009715353</v>
       </c>
       <c r="M13" t="n">
-        <v>197.6924721793908</v>
+        <v>197.6924721793909</v>
       </c>
       <c r="N13" t="n">
-        <v>198.481298592592</v>
+        <v>198.4812985925921</v>
       </c>
       <c r="O13" t="n">
-        <v>167.1515281020854</v>
+        <v>167.1515281020855</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>9.799975370760535</v>
+        <v>9.799975370760563</v>
       </c>
       <c r="K14" t="n">
-        <v>65.93865123051512</v>
+        <v>65.93865123051518</v>
       </c>
       <c r="L14" t="n">
-        <v>119.0772344730542</v>
+        <v>119.0772344730543</v>
       </c>
       <c r="M14" t="n">
-        <v>164.4856978296507</v>
+        <v>164.4856978296508</v>
       </c>
       <c r="N14" t="n">
-        <v>171.8076608889087</v>
+        <v>171.8076608889088</v>
       </c>
       <c r="O14" t="n">
-        <v>148.7631414297065</v>
+        <v>148.7631414297066</v>
       </c>
       <c r="P14" t="n">
-        <v>92.1164036362116</v>
+        <v>92.11640363621166</v>
       </c>
       <c r="Q14" t="n">
-        <v>20.51624285239959</v>
+        <v>20.51624285239964</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>16.12359609449074</v>
+        <v>16.12359609449094</v>
       </c>
       <c r="K15" t="n">
-        <v>56.43271173793309</v>
+        <v>56.43271173793312</v>
       </c>
       <c r="L15" t="n">
-        <v>122.6711907720996</v>
+        <v>122.6711907720997</v>
       </c>
       <c r="M15" t="n">
-        <v>162.70388569797</v>
+        <v>162.7038856979701</v>
       </c>
       <c r="N15" t="n">
-        <v>181.5643601954566</v>
+        <v>181.5643601954567</v>
       </c>
       <c r="O15" t="n">
         <v>143.6516805274356</v>
       </c>
       <c r="P15" t="n">
-        <v>95.76478843844899</v>
+        <v>95.76478843844905</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.59279424737198</v>
+        <v>13.59279424737204</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35813,16 +35813,16 @@
         <v>177.5469913443977</v>
       </c>
       <c r="M16" t="n">
-        <v>197.6924721793908</v>
+        <v>197.6924721793909</v>
       </c>
       <c r="N16" t="n">
-        <v>198.481298592592</v>
+        <v>130.8452723528709</v>
       </c>
       <c r="O16" t="n">
-        <v>167.1515281020854</v>
+        <v>167.1515281020855</v>
       </c>
       <c r="P16" t="n">
-        <v>51.63271749274069</v>
+        <v>119.2687437324623</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>9.799975370760535</v>
+        <v>9.799975370760563</v>
       </c>
       <c r="K17" t="n">
-        <v>65.93865123051512</v>
+        <v>65.93865123051518</v>
       </c>
       <c r="L17" t="n">
-        <v>119.0772344730542</v>
+        <v>119.0772344730543</v>
       </c>
       <c r="M17" t="n">
-        <v>164.4856978296507</v>
+        <v>164.4856978296508</v>
       </c>
       <c r="N17" t="n">
-        <v>171.8076608889087</v>
+        <v>171.8076608889088</v>
       </c>
       <c r="O17" t="n">
-        <v>148.7631414297065</v>
+        <v>148.7631414297066</v>
       </c>
       <c r="P17" t="n">
-        <v>92.1164036362116</v>
+        <v>92.11640363621166</v>
       </c>
       <c r="Q17" t="n">
-        <v>20.51624285239959</v>
+        <v>20.51624285239964</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>16.12359609449074</v>
+        <v>16.12359609449094</v>
       </c>
       <c r="K18" t="n">
-        <v>56.43271173793309</v>
+        <v>56.43271173793312</v>
       </c>
       <c r="L18" t="n">
-        <v>122.6711907720996</v>
+        <v>122.6711907720997</v>
       </c>
       <c r="M18" t="n">
-        <v>162.70388569797</v>
+        <v>162.7038856979701</v>
       </c>
       <c r="N18" t="n">
-        <v>181.5643601954566</v>
+        <v>181.5643601954567</v>
       </c>
       <c r="O18" t="n">
         <v>143.6516805274356</v>
       </c>
       <c r="P18" t="n">
-        <v>95.76478843844899</v>
+        <v>95.76478843844905</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.59279424737198</v>
+        <v>13.59279424737204</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36050,16 +36050,16 @@
         <v>177.5469913443977</v>
       </c>
       <c r="M19" t="n">
-        <v>197.6924721793908</v>
+        <v>197.6924721793909</v>
       </c>
       <c r="N19" t="n">
-        <v>198.481298592592</v>
+        <v>198.4812985925921</v>
       </c>
       <c r="O19" t="n">
-        <v>167.1515281020854</v>
+        <v>167.1515281020855</v>
       </c>
       <c r="P19" t="n">
-        <v>51.63271749274069</v>
+        <v>51.63271749274104</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>16.12359609449051</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>56.43271173793309</v>
+        <v>72.55630783242405</v>
       </c>
       <c r="L21" t="n">
         <v>122.6711907720996</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>51.63271749274057</v>
+        <v>51.63271749274102</v>
       </c>
       <c r="L22" t="n">
         <v>177.5469913443977</v>
@@ -36445,7 +36445,7 @@
         <v>122.6711907720996</v>
       </c>
       <c r="M24" t="n">
-        <v>162.70388569797</v>
+        <v>178.8274817924605</v>
       </c>
       <c r="N24" t="n">
         <v>181.5643601954566</v>
@@ -36454,7 +36454,7 @@
         <v>143.6516805274356</v>
       </c>
       <c r="P24" t="n">
-        <v>111.8883845329397</v>
+        <v>95.76478843844899</v>
       </c>
       <c r="Q24" t="n">
         <v>13.59279424737198</v>
@@ -36530,10 +36530,10 @@
         <v>198.481298592592</v>
       </c>
       <c r="O25" t="n">
-        <v>167.1515281020854</v>
+        <v>99.51550186236371</v>
       </c>
       <c r="P25" t="n">
-        <v>51.63271749274069</v>
+        <v>119.2687437324623</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>92.1164036362116</v>
       </c>
       <c r="Q26" t="n">
-        <v>20.51624285239929</v>
+        <v>20.51624285239959</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>16.12359609449051</v>
       </c>
       <c r="K27" t="n">
         <v>56.43271173793309</v>
@@ -36688,7 +36688,7 @@
         <v>181.5643601954566</v>
       </c>
       <c r="O27" t="n">
-        <v>159.7752766219263</v>
+        <v>143.6516805274356</v>
       </c>
       <c r="P27" t="n">
         <v>95.76478843844899</v>
@@ -36767,10 +36767,10 @@
         <v>198.481298592592</v>
       </c>
       <c r="O28" t="n">
-        <v>167.1515281020854</v>
+        <v>99.51550186236371</v>
       </c>
       <c r="P28" t="n">
-        <v>51.63271749274069</v>
+        <v>119.2687437324623</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>65.93865123051512</v>
       </c>
       <c r="L29" t="n">
-        <v>119.0772344730539</v>
+        <v>119.0772344730542</v>
       </c>
       <c r="M29" t="n">
         <v>164.4856978296507</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>72.55630783242383</v>
+        <v>56.43271173793309</v>
       </c>
       <c r="L30" t="n">
         <v>122.6711907720996</v>
@@ -36928,7 +36928,7 @@
         <v>143.6516805274356</v>
       </c>
       <c r="P30" t="n">
-        <v>95.76478843844899</v>
+        <v>111.8883845329397</v>
       </c>
       <c r="Q30" t="n">
         <v>13.59279424737198</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>94.9159078656031</v>
       </c>
       <c r="L31" t="n">
         <v>177.5469913443977</v>
@@ -37004,10 +37004,10 @@
         <v>198.481298592592</v>
       </c>
       <c r="O31" t="n">
-        <v>167.1515281020854</v>
+        <v>123.8683377292231</v>
       </c>
       <c r="P31" t="n">
-        <v>51.63271749274069</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>164.4856978296507</v>
       </c>
       <c r="N32" t="n">
-        <v>171.8076608889085</v>
+        <v>171.8076608889087</v>
       </c>
       <c r="O32" t="n">
         <v>148.7631414297065</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>16.12359609449074</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>56.43271173793309</v>
+        <v>72.55630783242405</v>
       </c>
       <c r="L33" t="n">
         <v>122.6711907720996</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>94.9159078656031</v>
       </c>
       <c r="L34" t="n">
         <v>177.5469913443977</v>
@@ -37241,10 +37241,10 @@
         <v>198.481298592592</v>
       </c>
       <c r="O34" t="n">
-        <v>167.1515281020854</v>
+        <v>123.8683377292233</v>
       </c>
       <c r="P34" t="n">
-        <v>51.63271749274069</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>16.12359609449074</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>56.43271173793309</v>
@@ -37399,7 +37399,7 @@
         <v>181.5643601954566</v>
       </c>
       <c r="O36" t="n">
-        <v>143.6516805274356</v>
+        <v>159.7752766219263</v>
       </c>
       <c r="P36" t="n">
         <v>95.76478843844899</v>
@@ -37466,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>94.9159078656031</v>
       </c>
       <c r="L37" t="n">
         <v>177.5469913443977</v>
       </c>
       <c r="M37" t="n">
-        <v>197.6924721793908</v>
+        <v>154.4092818065285</v>
       </c>
       <c r="N37" t="n">
         <v>198.481298592592</v>
@@ -37481,7 +37481,7 @@
         <v>167.1515281020854</v>
       </c>
       <c r="P37" t="n">
-        <v>51.63271749274069</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>72.55630783242383</v>
+        <v>56.43271173793309</v>
       </c>
       <c r="L39" t="n">
         <v>122.6711907720996</v>
@@ -37642,7 +37642,7 @@
         <v>95.76478843844899</v>
       </c>
       <c r="Q39" t="n">
-        <v>13.59279424737198</v>
+        <v>29.7163903418627</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>94.9159078656031</v>
       </c>
       <c r="L40" t="n">
         <v>177.5469913443977</v>
@@ -37712,7 +37712,7 @@
         <v>197.6924721793908</v>
       </c>
       <c r="N40" t="n">
-        <v>130.8452723528705</v>
+        <v>35.92936448726734</v>
       </c>
       <c r="O40" t="n">
         <v>167.1515281020854</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>16.12359609449063</v>
       </c>
       <c r="K42" t="n">
         <v>56.43271173793309</v>
       </c>
       <c r="L42" t="n">
-        <v>138.7947868665901</v>
+        <v>122.6711907720996</v>
       </c>
       <c r="M42" t="n">
         <v>162.70388569797</v>
@@ -37955,7 +37955,7 @@
         <v>167.1515281020854</v>
       </c>
       <c r="P43" t="n">
-        <v>51.63271749274046</v>
+        <v>51.63271749274057</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>9.799975370760535</v>
+        <v>9.799975370760023</v>
       </c>
       <c r="K44" t="n">
         <v>65.93865123051512</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>16.12359609449063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>56.43271173793309</v>
@@ -38107,7 +38107,7 @@
         <v>162.70388569797</v>
       </c>
       <c r="N45" t="n">
-        <v>181.5643601954566</v>
+        <v>197.6879562899472</v>
       </c>
       <c r="O45" t="n">
         <v>143.6516805274356</v>
